--- a/data/hotels_by_city/Houston/Houston_shard_229.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_229.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="443">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56701-d106344-Reviews-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
   </si>
   <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America-Houston-The-Woodlands.h104202.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1253 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r568434368-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>106344</t>
+  </si>
+  <si>
+    <t>568434368</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>Stay Somewhere Else</t>
+  </si>
+  <si>
+    <t>When I arrived, the room was not made up, the sheets were not on the bed and the garbage had not been dumped.  They assigned another room to me which seemed okay at first.  Although the room has a microwave, sink, refrigerator and range, there were no dishes, glasses or utensils.  I had to ask for these. I also had to ask for toilet paper and hangers. The freezer was not defrosted.  And there were a few bugs crawling around the sink and dining table. The housekeepers never made up the room or supplied fresh towels the five days I was there. The free wifi was very slow.  The room wasn't expensive, but it was nonetheless a poor value.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded March 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2018</t>
+  </si>
+  <si>
+    <t>When I arrived, the room was not made up, the sheets were not on the bed and the garbage had not been dumped.  They assigned another room to me which seemed okay at first.  Although the room has a microwave, sink, refrigerator and range, there were no dishes, glasses or utensils.  I had to ask for these. I also had to ask for toilet paper and hangers. The freezer was not defrosted.  And there were a few bugs crawling around the sink and dining table. The housekeepers never made up the room or supplied fresh towels the five days I was there. The free wifi was very slow.  The room wasn't expensive, but it was nonetheless a poor value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r567791343-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>567791343</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Jdog</t>
+  </si>
+  <si>
+    <t>I loved this hotel. Especially the staff The ladies at checkin are very pleasant and friendly. The management is Fantastic!  Great internet service, breakfast included. Laundry room was very convenient. Housekeeping did a superb job cleaning my room. Felt very safe as the had security all night. This hotel deserves 5 stars*****MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>I loved this hotel. Especially the staff The ladies at checkin are very pleasant and friendly. The management is Fantastic!  Great internet service, breakfast included. Laundry room was very convenient. Housekeeping did a superb job cleaning my room. Felt very safe as the had security all night. This hotel deserves 5 stars*****More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r566595017-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>566595017</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Bed Bug Infested</t>
+  </si>
+  <si>
+    <t>I have bed-bug bites all over my body from sleeping one night at this filth of an hotel. I booked this room on Priceline.com and is a shame that they endorse/support these type of health hazard hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>I have bed-bug bites all over my body from sleeping one night at this filth of an hotel. I booked this room on Priceline.com and is a shame that they endorse/support these type of health hazard hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r561328042-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>561328042</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Yikes.... But No Time To Change</t>
+  </si>
+  <si>
+    <t>The hotel was easy enough to find. It was late for me and I had to be up very early to move on. I reserved the room through Hotwire the day before.
+The desk clerk that I met at checking was super friendly even while trying to double task. She said there was an issue with the reservation. She could not verify the room had actually paid for. I called Hotwire for assistance. It took awhile but it did get straightened out.
+I was tired and just needed to unpack and go to sleep. Upon entering my room (#341), I found the following:
+1. There was a drip on the faucet in the bathroom. I told myself that it was not a big deal since I sleep with earplugs.
+2. The toilet had a very slow flush. I thought it might overflow but didn’t so again, no big deal.
+3. After undressing and ready to sleep, I went to turn on the light next to the bed. I reached under the shade to “push the button.” THERE WAS BUTTON! I found no light fixture, only exposed wiring. Luckily the lamp was unplugged or I would have been shocked!
+I wasn’t happy but I had to get some sleep so I went to bed with the idea that I would report everything to the morning desk clerk. I had just gotten to sleep when the nice night clerk called to check...The hotel was easy enough to find. It was late for me and I had to be up very early to move on. I reserved the room through Hotwire the day before.The desk clerk that I met at checking was super friendly even while trying to double task. She said there was an issue with the reservation. She could not verify the room had actually paid for. I called Hotwire for assistance. It took awhile but it did get straightened out.I was tired and just needed to unpack and go to sleep. Upon entering my room (#341), I found the following:1. There was a drip on the faucet in the bathroom. I told myself that it was not a big deal since I sleep with earplugs.2. The toilet had a very slow flush. I thought it might overflow but didn’t so again, no big deal.3. After undressing and ready to sleep, I went to turn on the light next to the bed. I reached under the shade to “push the button.” THERE WAS BUTTON! I found no light fixture, only exposed wiring. Luckily the lamp was unplugged or I would have been shocked!I wasn’t happy but I had to get some sleep so I went to bed with the idea that I would report everything to the morning desk clerk. I had just gotten to sleep when the nice night clerk called to check on things. I told her that I had some issues but would just deal with them in the AM. She did try to get more information but I just wanted to go to sleep.I went to the office to check out at about 6:30am to checkout. The door was unlocked but there was no one behind the counter. I left after waiting about 5 minutes.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was easy enough to find. It was late for me and I had to be up very early to move on. I reserved the room through Hotwire the day before.
+The desk clerk that I met at checking was super friendly even while trying to double task. She said there was an issue with the reservation. She could not verify the room had actually paid for. I called Hotwire for assistance. It took awhile but it did get straightened out.
+I was tired and just needed to unpack and go to sleep. Upon entering my room (#341), I found the following:
+1. There was a drip on the faucet in the bathroom. I told myself that it was not a big deal since I sleep with earplugs.
+2. The toilet had a very slow flush. I thought it might overflow but didn’t so again, no big deal.
+3. After undressing and ready to sleep, I went to turn on the light next to the bed. I reached under the shade to “push the button.” THERE WAS BUTTON! I found no light fixture, only exposed wiring. Luckily the lamp was unplugged or I would have been shocked!
+I wasn’t happy but I had to get some sleep so I went to bed with the idea that I would report everything to the morning desk clerk. I had just gotten to sleep when the nice night clerk called to check...The hotel was easy enough to find. It was late for me and I had to be up very early to move on. I reserved the room through Hotwire the day before.The desk clerk that I met at checking was super friendly even while trying to double task. She said there was an issue with the reservation. She could not verify the room had actually paid for. I called Hotwire for assistance. It took awhile but it did get straightened out.I was tired and just needed to unpack and go to sleep. Upon entering my room (#341), I found the following:1. There was a drip on the faucet in the bathroom. I told myself that it was not a big deal since I sleep with earplugs.2. The toilet had a very slow flush. I thought it might overflow but didn’t so again, no big deal.3. After undressing and ready to sleep, I went to turn on the light next to the bed. I reached under the shade to “push the button.” THERE WAS BUTTON! I found no light fixture, only exposed wiring. Luckily the lamp was unplugged or I would have been shocked!I wasn’t happy but I had to get some sleep so I went to bed with the idea that I would report everything to the morning desk clerk. I had just gotten to sleep when the nice night clerk called to check on things. I told her that I had some issues but would just deal with them in the AM. She did try to get more information but I just wanted to go to sleep.I went to the office to check out at about 6:30am to checkout. The door was unlocked but there was no one behind the counter. I left after waiting about 5 minutes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r559493130-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>559493130</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>Only stay if you want drugs or prostitutes</t>
+  </si>
+  <si>
+    <t>This place was terrible. Garbage everywhere, walkways filthy. Crack pipes and used condoms were left in room. Cable t.v. did not work for 2 days. Prostitutes knock on your door in the middle of night.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded February 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2018</t>
+  </si>
+  <si>
+    <t>This place was terrible. Garbage everywhere, walkways filthy. Crack pipes and used condoms were left in room. Cable t.v. did not work for 2 days. Prostitutes knock on your door in the middle of night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r559412678-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>559412678</t>
+  </si>
+  <si>
+    <t>Not A Very Good Place To STAY --- Lots of Smokers !!!!</t>
+  </si>
+  <si>
+    <t>Lots of Smoking in the Rooms, they seem not to be able to stop it from happening !!!If you are not a smoker I WOULD STAY AWAY from Extended Stay Lots of impurities in the water, very old pipes and equipment if you needMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Lots of Smoking in the Rooms, they seem not to be able to stop it from happening !!!If you are not a smoker I WOULD STAY AWAY from Extended Stay Lots of impurities in the water, very old pipes and equipment if you needMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r525603828-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>525603828</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Gave guaranteed and confirmed room reservation away to someone else!</t>
+  </si>
+  <si>
+    <t>Made reservation for room through Hotels.com and received confirmation number from hotels.com.   Room guaranteed with valid Mastercard.  Called hotel before actually reaching hotel to get directions and hotel clerk said my reservation was canceled.  I gave her confirmation number and then she changed story and said no credit card was on file.  Wrong.   Basically they gave away my room to someone else for no apparent reason.  Finally clerk (and on-duty manager) admitted they had no more rooms available and she did not know what had happened!  Called Hotels.com and they confirmed all this with the clerk as well.  Nice way to end a 700 mile in a day road trip!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Made reservation for room through Hotels.com and received confirmation number from hotels.com.   Room guaranteed with valid Mastercard.  Called hotel before actually reaching hotel to get directions and hotel clerk said my reservation was canceled.  I gave her confirmation number and then she changed story and said no credit card was on file.  Wrong.   Basically they gave away my room to someone else for no apparent reason.  Finally clerk (and on-duty manager) admitted they had no more rooms available and she did not know what had happened!  Called Hotels.com and they confirmed all this with the clerk as well.  Nice way to end a 700 mile in a day road trip!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r506481821-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>506481821</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Not worth the value if you ask me.</t>
+  </si>
+  <si>
+    <t>The staff is friendly and very helpful. The first room I got was dirty, and had the blankets and towels all over the floor. The next room the dishes were on the floor outside the door. Not sure if they were from the previous guest or were for us. The rooms are small, and you don't have any plates, cups, silverware, or anything else stocked in the rooms. You have to ask for accomidations. the shower and a/c unit were about the only good things about this place. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>The staff is friendly and very helpful. The first room I got was dirty, and had the blankets and towels all over the floor. The next room the dishes were on the floor outside the door. Not sure if they were from the previous guest or were for us. The rooms are small, and you don't have any plates, cups, silverware, or anything else stocked in the rooms. You have to ask for accomidations. the shower and a/c unit were about the only good things about this place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r503264084-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>503264084</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>ROACH INFESTED, drug dealers, rooms not clean, no dishes hardly ever. I would never stay there AGAIN. They never have anything and people hang out all night and drug transactions. Keep away if you canMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>ROACH INFESTED, drug dealers, rooms not clean, no dishes hardly ever. I would never stay there AGAIN. They never have anything and people hang out all night and drug transactions. Keep away if you canMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r494860430-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>494860430</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>I visit this hotel all the time. This place is GREAT!!</t>
+  </si>
+  <si>
+    <t>Clean rooms clean grounds.Picnic ereaVery secureEmployees are amazing hereFrom the manager to laundry Yessenia,Kelly,Lilliana,Raul-chelsey-Jennifer-Candy-Misty-NickTheir all FRIENDLY AND HELPFUL!!!JohnMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Clean rooms clean grounds.Picnic ereaVery secureEmployees are amazing hereFrom the manager to laundry Yessenia,Kelly,Lilliana,Raul-chelsey-Jennifer-Candy-Misty-NickTheir all FRIENDLY AND HELPFUL!!!JohnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r487099917-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>487099917</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Only hotel chain my company uses!!</t>
+  </si>
+  <si>
+    <t>This hotel is great! The staff is very friendly and helpful,  especially Kelli and Yesenia! My company stays at ESA the Woodlands for months at a time,  and we have never had a complaint.  Great price, great location, great rooms, and most of all, great staff!! Keep up the good work!!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is great! The staff is very friendly and helpful,  especially Kelli and Yesenia! My company stays at ESA the Woodlands for months at a time,  and we have never had a complaint.  Great price, great location, great rooms, and most of all, great staff!! Keep up the good work!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r481689309-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>481689309</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t>For the rate that they charge it is difficult to leave a bad review.  However, the only thing good about this place was it had clean towels &amp; linens, and fresh paint on the walls. (Room 317) The shower (no tub) had not been cleaned, it had a bloodstain on the walls and the floor made me wish I had brought shower shoes.  The toilet obviously had not been cleaned at all.  The floors were sticky.  One of the pictures of the hotel show a woman cooking a meal in the kitchen using pots and pans and food on a plate and a coffee maker on the counter.  My room had nothing, not one cooking utensil, dish, glass, nothing.  I had brought food along to save money and had to eat out anyways.  At least the lobby had  coffee and granola bars.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded May 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2017</t>
+  </si>
+  <si>
+    <t>For the rate that they charge it is difficult to leave a bad review.  However, the only thing good about this place was it had clean towels &amp; linens, and fresh paint on the walls. (Room 317) The shower (no tub) had not been cleaned, it had a bloodstain on the walls and the floor made me wish I had brought shower shoes.  The toilet obviously had not been cleaned at all.  The floors were sticky.  One of the pictures of the hotel show a woman cooking a meal in the kitchen using pots and pans and food on a plate and a coffee maker on the counter.  My room had nothing, not one cooking utensil, dish, glass, nothing.  I had brought food along to save money and had to eat out anyways.  At least the lobby had  coffee and granola bars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r461214166-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>461214166</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Beware!</t>
+  </si>
+  <si>
+    <t>Do not stay here! The room was not clean. Looked like no one had cleaned around the sinks in forever!Worse part-opening the cabinet and seeing roaches! That is plural! As well you could see the tall tell signs of more in the back corner of the cabinet.The bottom sheet on the bed was dirty and was not changed after we requested.Unfortunately we were there for work and had to stay 1 additional night till company could book another room. We packed all our stuff and put it back in our vehicle so we didn't get any unwanted hitchhikers!Absolutely the worst! We did not take pics of the roaches as we were totally grossed out. Another person who arrived late that night, we text to let them know, walked in and see the roaches and walked right back out. So was not just 1 room!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Do not stay here! The room was not clean. Looked like no one had cleaned around the sinks in forever!Worse part-opening the cabinet and seeing roaches! That is plural! As well you could see the tall tell signs of more in the back corner of the cabinet.The bottom sheet on the bed was dirty and was not changed after we requested.Unfortunately we were there for work and had to stay 1 additional night till company could book another room. We packed all our stuff and put it back in our vehicle so we didn't get any unwanted hitchhikers!Absolutely the worst! We did not take pics of the roaches as we were totally grossed out. Another person who arrived late that night, we text to let them know, walked in and see the roaches and walked right back out. So was not just 1 room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r460076185-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>460076185</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Not impressed.....</t>
+  </si>
+  <si>
+    <t>I've stayed at many ESA locations in the past and this was not one I'd revisit. Asked for refund- dingy rooms, bad location, not at all as described online. Save your $$ &amp; find a cleaner &amp; safer place to stay. Kitchenette was busted up &amp; felt so dirty I wouldn't have even wanted to eat a meal cooked from that kitchen. Lost big on the two nights I had to endure, could have spent the same amount and been at the Hilton after they held my 150$ pet fee, But at least I get a portion of my money back. As I travel with work regularly I've seen some great ESA's and women poor ones, this is one of the poor ones. Sorry.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed at many ESA locations in the past and this was not one I'd revisit. Asked for refund- dingy rooms, bad location, not at all as described online. Save your $$ &amp; find a cleaner &amp; safer place to stay. Kitchenette was busted up &amp; felt so dirty I wouldn't have even wanted to eat a meal cooked from that kitchen. Lost big on the two nights I had to endure, could have spent the same amount and been at the Hilton after they held my 150$ pet fee, But at least I get a portion of my money back. As I travel with work regularly I've seen some great ESA's and women poor ones, this is one of the poor ones. Sorry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r449836723-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>449836723</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>I had problems With my flight twice, which made me rebook twice, and I had no problem with that, it didn' t cost me nothing more. The attendant when  I arrived was a very Nice person. My first bedroom had a malfunctioning fridge, so I called the attendant and my room was readily replaced. The room is comfortable, they provide you dishes, silver and whatever you need for your kitchen. The WIFI Works pretty Well. And the breakfast attends the promise, althoug I think it should have something salty. For the price I think it's a great place!</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r380622793-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>380622793</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Extended Stay América nightmare</t>
+  </si>
+  <si>
+    <t>ESA The Woodlands,TX: dirty, piles of trash in each floor behind stairs, flies, mold smell in room, run down furniture, dirty elevator.I had booked to stay there 2 months, left after the first night. Front desk girls are nice, this is the only good thing.The price for extended stay over 60 days could be as cheap as $35.99/ day... If you can stand it, for that price, I guess is ok.I have stay in ESA before in Chicago and never had such an experience, the Woodlands location is a bad representation  for Extended Stay America and should Be dropped from their list, or taken under different management.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r373347577-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>373347577</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>This is NOT a hotel.</t>
+  </si>
+  <si>
+    <t>Worst breakfast ever! Just some bars of nut. That's all.No trash bin in the room.A lot of trash in corner of the stair.A Terrible place.They even did not hold the room more me.Please do not book this hotel.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r341967680-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>341967680</t>
+  </si>
+  <si>
+    <t>01/22/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A clean place to sleep </t>
+  </si>
+  <si>
+    <t>This is my 1st time to stay in an extended stay hotel below my feedback :-location is in north Houston I45 highway, 40 Minutes drive from down town ,in rush Hour 60-90 minutes. -room is clean with weekly room service and WiFi is good speed .-Parking is free and safe-location is close to restaurants and fast-food main chains-coin laundry room-you can't stay here if you don't have a car,no public transportation at all.Here are the negative points :-my reservation was for 1 month but the last week they increased the weekly rate 60 $!! I talk to the assistant manager many times but no feedback and I must accept or leave.-if you are familiar with the extended stay in Europe, please note that here is another story : less accommodation, more expensive, old property. -I have paid for the breakfast for 32 days and never used it,simply it's not a breakfast and that's the system :you must pay even if you will not eat it.-I arrived one day after 10 PM and my key was not working, they said after 20 minutes that I should reactivate it every week!!-another day:key was not working, front desk said: the policy is to pay before 11 then you can enter the room.Am leaving tomorrow and will never stay here again and even my company employees MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>This is my 1st time to stay in an extended stay hotel below my feedback :-location is in north Houston I45 highway, 40 Minutes drive from down town ,in rush Hour 60-90 minutes. -room is clean with weekly room service and WiFi is good speed .-Parking is free and safe-location is close to restaurants and fast-food main chains-coin laundry room-you can't stay here if you don't have a car,no public transportation at all.Here are the negative points :-my reservation was for 1 month but the last week they increased the weekly rate 60 $!! I talk to the assistant manager many times but no feedback and I must accept or leave.-if you are familiar with the extended stay in Europe, please note that here is another story : less accommodation, more expensive, old property. -I have paid for the breakfast for 32 days and never used it,simply it's not a breakfast and that's the system :you must pay even if you will not eat it.-I arrived one day after 10 PM and my key was not working, they said after 20 minutes that I should reactivate it every week!!-another day:key was not working, front desk said: the policy is to pay before 11 then you can enter the room.Am leaving tomorrow and will never stay here again and even my company employees More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r302016868-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>302016868</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Unbelievably Inept</t>
+  </si>
+  <si>
+    <t>Got a good internet rate.  Needed a second bed so the clerk charged $20 a night extra.  Same clerk gave me key to a room with only one bed,  When I got to the room I tried to call the clerk but could not get an answer.  Had to walk around the building to the office only to find it locked and a "be back soon" sign on the door.  Finally got a room with two beds.  It had only one small pillow.  Back to the office to request pillows and another wait.  You can't make this stuff up.  Don't do this.  Pay a little more and spare yourself this kind of grief. The "kitchenette" is 4 feet wide and 2 feet deep.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Got a good internet rate.  Needed a second bed so the clerk charged $20 a night extra.  Same clerk gave me key to a room with only one bed,  When I got to the room I tried to call the clerk but could not get an answer.  Had to walk around the building to the office only to find it locked and a "be back soon" sign on the door.  Finally got a room with two beds.  It had only one small pillow.  Back to the office to request pillows and another wait.  You can't make this stuff up.  Don't do this.  Pay a little more and spare yourself this kind of grief. The "kitchenette" is 4 feet wide and 2 feet deep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r298501627-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>298501627</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Avoid this hotel if you can</t>
+  </si>
+  <si>
+    <t>We were looking for a place with kitchen. We picked this place, oohhh huge mistake. The room we got was not clean. So they transfer us to an other room. The bathroom was dirty, and the room smells really bad. We booked two queens, there no room with 2 queens. They only have rooms with a queen and a full. My family and I have a really bad experience here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r272656147-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>272656147</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>Not a positive experience</t>
+  </si>
+  <si>
+    <t>Room was very small. No door on closet, just a curtain. No counter space in bathroom. No hair dryer in room. Bed was not comfortable. Carpet was dirty. The room smelled bad. I would NOT recommend staying at this hotel. I will not stay at an Extended Stay America hotel ever again.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r264113972-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>264113972</t>
+  </si>
+  <si>
+    <t>04/06/2015</t>
+  </si>
+  <si>
+    <t>Be VERY cautious. Bed Bugs, Piss Poor Attitudes, and Renovations during "quiet time"</t>
+  </si>
+  <si>
+    <t>The ONLY reason I am giving this hotel a poor rating is because management and ONE employee seemed to go above and beyond to help us out when we found out the room we were in was infested with bed bugs. 
+3 or 4 days into our 3 week stay, my significant other started to get concerned with all the random bites that had started to turn up. Went to the clinic and they immediately suspected bed bugs. Pulled the covers, flipped beds and all, no bugs evident. We stayed up til Midnight, turned lights out and as soon as she rolled around a little, trying to get comfortable, by phone light, she spotted a bug on our pillows. We moved the pillows and it was like the sheets had turned a brownish-red tint, all scattered as we turned the lights on. I flipped! Called the front desk and they ordered me to take any and all belonging outside to the hallway and come get a new room card. Livid at this point, I was ready to throw in the towel, as we had been tracing this issue from the last hotel we were at (in Ft. Stockton) that had bugs. Made sure they wouldn't carry over from that hotel (an overnight stay with no bags involved). 
+We received a new room and held all belongings that could carry over the bugs outside til I could run and grab pesticide...The ONLY reason I am giving this hotel a poor rating is because management and ONE employee seemed to go above and beyond to help us out when we found out the room we were in was infested with bed bugs. 3 or 4 days into our 3 week stay, my significant other started to get concerned with all the random bites that had started to turn up. Went to the clinic and they immediately suspected bed bugs. Pulled the covers, flipped beds and all, no bugs evident. We stayed up til Midnight, turned lights out and as soon as she rolled around a little, trying to get comfortable, by phone light, she spotted a bug on our pillows. We moved the pillows and it was like the sheets had turned a brownish-red tint, all scattered as we turned the lights on. I flipped! Called the front desk and they ordered me to take any and all belonging outside to the hallway and come get a new room card. Livid at this point, I was ready to throw in the towel, as we had been tracing this issue from the last hotel we were at (in Ft. Stockton) that had bugs. Made sure they wouldn't carry over from that hotel (an overnight stay with no bags involved). We received a new room and held all belongings that could carry over the bugs outside til I could run and grab pesticide for these critters. This all on my dime. The manager did give us a new room, one night free and enough change to wash and dry all our clothes all over again, but the cost still incurred to get a new suit case, pesticide for other hard goods and shoes, as well as throwing our personal pillows out (expensive memory foam at that!)In the end, the room we got the second time was clean and up to par, but if housekeeping were on top of the cleanliness of rooms, they would have seen traces of these nasty devils. My advice, before you even accept your room and reservation, as to check it. Check it well!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>The ONLY reason I am giving this hotel a poor rating is because management and ONE employee seemed to go above and beyond to help us out when we found out the room we were in was infested with bed bugs. 
+3 or 4 days into our 3 week stay, my significant other started to get concerned with all the random bites that had started to turn up. Went to the clinic and they immediately suspected bed bugs. Pulled the covers, flipped beds and all, no bugs evident. We stayed up til Midnight, turned lights out and as soon as she rolled around a little, trying to get comfortable, by phone light, she spotted a bug on our pillows. We moved the pillows and it was like the sheets had turned a brownish-red tint, all scattered as we turned the lights on. I flipped! Called the front desk and they ordered me to take any and all belonging outside to the hallway and come get a new room card. Livid at this point, I was ready to throw in the towel, as we had been tracing this issue from the last hotel we were at (in Ft. Stockton) that had bugs. Made sure they wouldn't carry over from that hotel (an overnight stay with no bags involved). 
+We received a new room and held all belongings that could carry over the bugs outside til I could run and grab pesticide...The ONLY reason I am giving this hotel a poor rating is because management and ONE employee seemed to go above and beyond to help us out when we found out the room we were in was infested with bed bugs. 3 or 4 days into our 3 week stay, my significant other started to get concerned with all the random bites that had started to turn up. Went to the clinic and they immediately suspected bed bugs. Pulled the covers, flipped beds and all, no bugs evident. We stayed up til Midnight, turned lights out and as soon as she rolled around a little, trying to get comfortable, by phone light, she spotted a bug on our pillows. We moved the pillows and it was like the sheets had turned a brownish-red tint, all scattered as we turned the lights on. I flipped! Called the front desk and they ordered me to take any and all belonging outside to the hallway and come get a new room card. Livid at this point, I was ready to throw in the towel, as we had been tracing this issue from the last hotel we were at (in Ft. Stockton) that had bugs. Made sure they wouldn't carry over from that hotel (an overnight stay with no bags involved). We received a new room and held all belongings that could carry over the bugs outside til I could run and grab pesticide for these critters. This all on my dime. The manager did give us a new room, one night free and enough change to wash and dry all our clothes all over again, but the cost still incurred to get a new suit case, pesticide for other hard goods and shoes, as well as throwing our personal pillows out (expensive memory foam at that!)In the end, the room we got the second time was clean and up to par, but if housekeeping were on top of the cleanliness of rooms, they would have seen traces of these nasty devils. My advice, before you even accept your room and reservation, as to check it. Check it well!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r252121168-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>252121168</t>
+  </si>
+  <si>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t>Unclean and nasty</t>
+  </si>
+  <si>
+    <t>The room, kitchen and bathroom were not clean. The room smelled like cigars. Additionally, the fridge was not working. Requested a fridge replacement but nobody came. The TV didn't work in the mornings. The beds and pillows were uncomfortable and the toilet had stool stains.The staff was not friendly. They behave like they don't want to be there.Do not stay at this hotel, otherwise you will regret it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded February 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2015</t>
+  </si>
+  <si>
+    <t>The room, kitchen and bathroom were not clean. The room smelled like cigars. Additionally, the fridge was not working. Requested a fridge replacement but nobody came. The TV didn't work in the mornings. The beds and pillows were uncomfortable and the toilet had stool stains.The staff was not friendly. They behave like they don't want to be there.Do not stay at this hotel, otherwise you will regret it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r250981702-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>250981702</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Bed Bugs</t>
+  </si>
+  <si>
+    <t>My son and I checked into separate rooms of this establishment. At about 1 week, he noticed bug bites (between 50-100)all over his body, including between hid toes. He found a nest of bed bugs under his sheets. The hotel refused to refund his stay as we left the hotel for another. They wished to move him to another room. But we were so very disgusted by the infestation, we felt compelled to leave the property.  Neither the manager, nor corporate would address his departure by refunding his stay which included the second week even though their own pest inspector had documented the infestation!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r235812334-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>235812334</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good value for price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is a nice clean hotel. Located very   close to I 45 so easy access to the freeway. The rooms are nice and things worked well The check in and out were painless. Overall a decent place to stay for a resonable cost. </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r234452915-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>234452915</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>I asked for extra pillows and the only answer I was given "We don't have any."  That is very poor customer service.  I will never stay at an Extended Stay America hotel again.  I plan to report to Corporate Lodging of the experience i have had and hope they terminate the contract they have with the company.  Really nothing to be proud of in my opinion.  Poor excuse for a motel / hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded October 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2014</t>
+  </si>
+  <si>
+    <t>I asked for extra pillows and the only answer I was given "We don't have any."  That is very poor customer service.  I will never stay at an Extended Stay America hotel again.  I plan to report to Corporate Lodging of the experience i have had and hope they terminate the contract they have with the company.  Really nothing to be proud of in my opinion.  Poor excuse for a motel / hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r231381886-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>231381886</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>Will never stay here again!</t>
+  </si>
+  <si>
+    <t>This hotel boosts about being newly renovated in early 2014....what was renovated is beyond me! The room was unclean, had old appliances, old furniture, the front desk personnel could not have provided worse customer service if they wanted too when they could be found and the room was full of flies! We even had a smashed fly on the window and on the towels in the room! Checking in took forever as there was no personnel there and checking out was the same problem. DO NOT stay here, absolute dump! I took pictures of he room and I'm hoping I can upload them somewhere on this site!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded October 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2014</t>
+  </si>
+  <si>
+    <t>This hotel boosts about being newly renovated in early 2014....what was renovated is beyond me! The room was unclean, had old appliances, old furniture, the front desk personnel could not have provided worse customer service if they wanted too when they could be found and the room was full of flies! We even had a smashed fly on the window and on the towels in the room! Checking in took forever as there was no personnel there and checking out was the same problem. DO NOT stay here, absolute dump! I took pictures of he room and I'm hoping I can upload them somewhere on this site!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r206612275-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>206612275</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>Dirty, nasty, unsafe</t>
+  </si>
+  <si>
+    <t>First off, let me just say I never write reviews. Let that give you an idea about how unhappy I am with my stay at this hotel. My boyfriend and I like to go on weekend or one night get always once every couple of weeks. To galveston/sugarland/the woodlands/etc. Usually we just wing it with the hotel situation but this time I decided to look one up and I found extended stay. It was a great price. A pretty good location, only two something miles from the mall and everything else. When we arrived I was a little disappointed because I was told all the rooms were booked. The guy at the front desk was very helpful and kind. He let me know that sometimes websites prebook a bunch of rooms and that I might try going through one of these websites and buy it on there. So I did and we ended up on the third floor. The clientele here as we were walking to our room seemed a little bit ghetto. I didn't feel super unsafe but I got an uncomfortable feeling and I wouldn't be walking around alone at night for sure. We reached our room and at first glance it seemed very nice. A little small. But it had a cute little kitchenette. No blow dryer. But there were pots and dishes and anything you might need to make a meal. We watched tv in bed...First off, let me just say I never write reviews. Let that give you an idea about how unhappy I am with my stay at this hotel. My boyfriend and I like to go on weekend or one night get always once every couple of weeks. To galveston/sugarland/the woodlands/etc. Usually we just wing it with the hotel situation but this time I decided to look one up and I found extended stay. It was a great price. A pretty good location, only two something miles from the mall and everything else. When we arrived I was a little disappointed because I was told all the rooms were booked. The guy at the front desk was very helpful and kind. He let me know that sometimes websites prebook a bunch of rooms and that I might try going through one of these websites and buy it on there. So I did and we ended up on the third floor. The clientele here as we were walking to our room seemed a little bit ghetto. I didn't feel super unsafe but I got an uncomfortable feeling and I wouldn't be walking around alone at night for sure. We reached our room and at first glance it seemed very nice. A little small. But it had a cute little kitchenette. No blow dryer. But there were pots and dishes and anything you might need to make a meal. We watched tv in bed for a while and I got up to use the restroom when I noticed the stains. I can understand stains. Stains are okay.. They are white sheets and I understand that. But these were BROWN AND CRUNCHY. Unwashed sheets with poop on them. And in multiple places. I was super grossed out but I ignored it and after a wonderful night out we came back. My boyfriend then noticed the paper clips holding the curtains together. Kind of tacky.. In the morning I went to take a shower. There was no plastic liner behind the shower curtain so water was leaking out everywhere. The first thing I saw after the water heated up and I stepped in was a massive clump of hair. Not just three or four strands. It looked like someone cleaned their brush out in the shower and it made me wonder how the cleaning people missed it. Second thing I saw was a little baby roach scurrying around trying to hide from the water. I understand. It's a hotel. A roach is to be expected. Plus it was small. As soon as I got out of the shower it got worse. I don't know if they flocked to the warm steamy air or if they came out of the drain or what but they were everywhere. There were like 5 small roaches that I could see in the bathroom alone. Went out to the kitchen to brew a cup of coffee and spotted three or four more over there. We got dressed and got out of their quick. When I got in the car that's when I noticed my legs. Big, huge bug bites. Like five of them. Not sure what kind of bug but they are super swollen up and itchy and blotchy looking. Not comfortable. But besides all of that the hotel was just fantastic!!!! Just loved it, can't wait to stay here again (sarcasm, in case you missed it.)MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded May 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2014</t>
+  </si>
+  <si>
+    <t>First off, let me just say I never write reviews. Let that give you an idea about how unhappy I am with my stay at this hotel. My boyfriend and I like to go on weekend or one night get always once every couple of weeks. To galveston/sugarland/the woodlands/etc. Usually we just wing it with the hotel situation but this time I decided to look one up and I found extended stay. It was a great price. A pretty good location, only two something miles from the mall and everything else. When we arrived I was a little disappointed because I was told all the rooms were booked. The guy at the front desk was very helpful and kind. He let me know that sometimes websites prebook a bunch of rooms and that I might try going through one of these websites and buy it on there. So I did and we ended up on the third floor. The clientele here as we were walking to our room seemed a little bit ghetto. I didn't feel super unsafe but I got an uncomfortable feeling and I wouldn't be walking around alone at night for sure. We reached our room and at first glance it seemed very nice. A little small. But it had a cute little kitchenette. No blow dryer. But there were pots and dishes and anything you might need to make a meal. We watched tv in bed...First off, let me just say I never write reviews. Let that give you an idea about how unhappy I am with my stay at this hotel. My boyfriend and I like to go on weekend or one night get always once every couple of weeks. To galveston/sugarland/the woodlands/etc. Usually we just wing it with the hotel situation but this time I decided to look one up and I found extended stay. It was a great price. A pretty good location, only two something miles from the mall and everything else. When we arrived I was a little disappointed because I was told all the rooms were booked. The guy at the front desk was very helpful and kind. He let me know that sometimes websites prebook a bunch of rooms and that I might try going through one of these websites and buy it on there. So I did and we ended up on the third floor. The clientele here as we were walking to our room seemed a little bit ghetto. I didn't feel super unsafe but I got an uncomfortable feeling and I wouldn't be walking around alone at night for sure. We reached our room and at first glance it seemed very nice. A little small. But it had a cute little kitchenette. No blow dryer. But there were pots and dishes and anything you might need to make a meal. We watched tv in bed for a while and I got up to use the restroom when I noticed the stains. I can understand stains. Stains are okay.. They are white sheets and I understand that. But these were BROWN AND CRUNCHY. Unwashed sheets with poop on them. And in multiple places. I was super grossed out but I ignored it and after a wonderful night out we came back. My boyfriend then noticed the paper clips holding the curtains together. Kind of tacky.. In the morning I went to take a shower. There was no plastic liner behind the shower curtain so water was leaking out everywhere. The first thing I saw after the water heated up and I stepped in was a massive clump of hair. Not just three or four strands. It looked like someone cleaned their brush out in the shower and it made me wonder how the cleaning people missed it. Second thing I saw was a little baby roach scurrying around trying to hide from the water. I understand. It's a hotel. A roach is to be expected. Plus it was small. As soon as I got out of the shower it got worse. I don't know if they flocked to the warm steamy air or if they came out of the drain or what but they were everywhere. There were like 5 small roaches that I could see in the bathroom alone. Went out to the kitchen to brew a cup of coffee and spotted three or four more over there. We got dressed and got out of their quick. When I got in the car that's when I noticed my legs. Big, huge bug bites. Like five of them. Not sure what kind of bug but they are super swollen up and itchy and blotchy looking. Not comfortable. But besides all of that the hotel was just fantastic!!!! Just loved it, can't wait to stay here again (sarcasm, in case you missed it.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r206199925-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>206199925</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Won't be staying Again</t>
+  </si>
+  <si>
+    <t>I had booked a non-smoking room May 14 - May 18. My husband was doing Ironman Texas. On May 14 (at 2 pm) I called the hotel to change our arrival day to May 15. The person on the line asked for the new arrival date. Everything was changed successfully. I asked if we would still be getting our original rate. He said YES. 
+The next day we arrive and they could not find our reservation, they could not give us a non-smoking room and we were being charged a much more expensive rate. I finally found the confirmation number of the booking and after much back and forth I finally got a non-smoking room for the original rate I booked (I have yet to confirm this on my credit card).
+The non-smoking room smelled of smoke. The kitchen had no pots (two plates, two mugs, two bowls). The microwave plate was not the right one for the microwave and wobbled. The kitchen cabinets were damaged. The toilet had brown spots on the front (disgusting). Old and worn towels and just one bar of soap. The sheets had VERY visible stains. The room is small and you can hear the noise of the traffic (in the room facing the expressway) when the AC kicks off.
+Within a stones throw (across the entrance of the hotel) there is a pretty good Italian restaurant, Carrabba's and there are a few other restaurants...I had booked a non-smoking room May 14 - May 18. My husband was doing Ironman Texas. On May 14 (at 2 pm) I called the hotel to change our arrival day to May 15. The person on the line asked for the new arrival date. Everything was changed successfully. I asked if we would still be getting our original rate. He said YES. The next day we arrive and they could not find our reservation, they could not give us a non-smoking room and we were being charged a much more expensive rate. I finally found the confirmation number of the booking and after much back and forth I finally got a non-smoking room for the original rate I booked (I have yet to confirm this on my credit card).The non-smoking room smelled of smoke. The kitchen had no pots (two plates, two mugs, two bowls). The microwave plate was not the right one for the microwave and wobbled. The kitchen cabinets were damaged. The toilet had brown spots on the front (disgusting). Old and worn towels and just one bar of soap. The sheets had VERY visible stains. The room is small and you can hear the noise of the traffic (in the room facing the expressway) when the AC kicks off.Within a stones throw (across the entrance of the hotel) there is a pretty good Italian restaurant, Carrabba's and there are a few other restaurants within walking distance.The place is supposedly fully renovated, and still misses offering you accommodations that are relaxing and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded May 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2014</t>
+  </si>
+  <si>
+    <t>I had booked a non-smoking room May 14 - May 18. My husband was doing Ironman Texas. On May 14 (at 2 pm) I called the hotel to change our arrival day to May 15. The person on the line asked for the new arrival date. Everything was changed successfully. I asked if we would still be getting our original rate. He said YES. 
+The next day we arrive and they could not find our reservation, they could not give us a non-smoking room and we were being charged a much more expensive rate. I finally found the confirmation number of the booking and after much back and forth I finally got a non-smoking room for the original rate I booked (I have yet to confirm this on my credit card).
+The non-smoking room smelled of smoke. The kitchen had no pots (two plates, two mugs, two bowls). The microwave plate was not the right one for the microwave and wobbled. The kitchen cabinets were damaged. The toilet had brown spots on the front (disgusting). Old and worn towels and just one bar of soap. The sheets had VERY visible stains. The room is small and you can hear the noise of the traffic (in the room facing the expressway) when the AC kicks off.
+Within a stones throw (across the entrance of the hotel) there is a pretty good Italian restaurant, Carrabba's and there are a few other restaurants...I had booked a non-smoking room May 14 - May 18. My husband was doing Ironman Texas. On May 14 (at 2 pm) I called the hotel to change our arrival day to May 15. The person on the line asked for the new arrival date. Everything was changed successfully. I asked if we would still be getting our original rate. He said YES. The next day we arrive and they could not find our reservation, they could not give us a non-smoking room and we were being charged a much more expensive rate. I finally found the confirmation number of the booking and after much back and forth I finally got a non-smoking room for the original rate I booked (I have yet to confirm this on my credit card).The non-smoking room smelled of smoke. The kitchen had no pots (two plates, two mugs, two bowls). The microwave plate was not the right one for the microwave and wobbled. The kitchen cabinets were damaged. The toilet had brown spots on the front (disgusting). Old and worn towels and just one bar of soap. The sheets had VERY visible stains. The room is small and you can hear the noise of the traffic (in the room facing the expressway) when the AC kicks off.Within a stones throw (across the entrance of the hotel) there is a pretty good Italian restaurant, Carrabba's and there are a few other restaurants within walking distance.The place is supposedly fully renovated, and still misses offering you accommodations that are relaxing and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r205553005-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>205553005</t>
+  </si>
+  <si>
+    <t>05/14/2014</t>
+  </si>
+  <si>
+    <t>Never in my life!!!</t>
+  </si>
+  <si>
+    <t>Never in my life have i been to a worse hotel, and I've had some bad ones. The only thing half decent about this place is their staff. I checked in and was immediately dissatisfied. The sheets had stains on them, there were towels were from the Marriot, and other hotels. They told us that our weekly cleaning was on Thursdays and we went 3 weeks without service before I had to raise a fuss. When we asked for new sheets the front desk told us that ALL linens were being washed, I personally have NEVER been to ANY hotel that did not have clean sheets. They do not have blankets here, all they have is what looks to be a felt sheet and you have to REQUEST a blanket. I have never been so appalled by a facility in my life. DO NOT STAY HERE!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2014</t>
+  </si>
+  <si>
+    <t>Never in my life have i been to a worse hotel, and I've had some bad ones. The only thing half decent about this place is their staff. I checked in and was immediately dissatisfied. The sheets had stains on them, there were towels were from the Marriot, and other hotels. They told us that our weekly cleaning was on Thursdays and we went 3 weeks without service before I had to raise a fuss. When we asked for new sheets the front desk told us that ALL linens were being washed, I personally have NEVER been to ANY hotel that did not have clean sheets. They do not have blankets here, all they have is what looks to be a felt sheet and you have to REQUEST a blanket. I have never been so appalled by a facility in my life. DO NOT STAY HERE!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r177653644-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>177653644</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>If you have to</t>
+  </si>
+  <si>
+    <t>This review is biased by the fact that the building was being renovated. Lots of dust and debris. We stayed from mid-August to mid-September (we're relocating) and finally couldn't take I and moved to La Quinta. On the plus side, there are three excellent restaurants within walking distance: Fukuda (Japanese), Taipei (Chinese) and Sitar (Indian).MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded September 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2013</t>
+  </si>
+  <si>
+    <t>This review is biased by the fact that the building was being renovated. Lots of dust and debris. We stayed from mid-August to mid-September (we're relocating) and finally couldn't take I and moved to La Quinta. On the plus side, there are three excellent restaurants within walking distance: Fukuda (Japanese), Taipei (Chinese) and Sitar (Indian).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r174231200-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>174231200</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>HORRIBLE!!!!!!!!!!!!!!!!DO NOT STAY HERE!!!!!!</t>
+  </si>
+  <si>
+    <t>This hotel should be shut down! Tried to scam me for more money for room prepaid by company. Room stunk so bad, front counter help was very rude, bullet hole in wall of the SECOND room I was given that was not clean and had no working toilet (they wanted me to reach in tank to flush, really?). Sheets were not clean in either. DO NOT STAY HERE!!!!!! Look at other reviews, cars broken into, stuff stolen from rooms.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r171487573-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>171487573</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>Too scared to check in.</t>
+  </si>
+  <si>
+    <t>The internet depicted this place as a clean, newly-renovated motel.  Way to lie to us, ESA!!  I pulled up and there were a bunch of men (obviously drunk) hanging over the second floor balcony yelling to people in the parking lot.  I planned to check in for a minimum of 17 days.  As a woman staying alone, I asked to be on the second or third floor in a non-smoking room.  The girl told me that wasn't available but that I could be on the backside of the hotel at ground level. She told me not to worry because most of the people there had lived at the hotel over a year.  I'm not sure why that was supposed to make me feel better about the place. Before I paid the $810 for my stay, I asked if I could see the room.  She complied and handed me a key.  Upon entry to the room, the smell almost made me black out.  It was a combination of cigarette smoke, mildew and urine.  The room was tiny and dark.  There was no bathtub.  Only a plastic shower pan and curtain.  The furniture looked like it had been chewed on by animals.  I felt sick and scared when I walked out.  I returned the key to the office and I will NEVER return.  Unfortunately, that memory will be etched on my brain for the rest of my life.  DO NOT STAY HERE!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The internet depicted this place as a clean, newly-renovated motel.  Way to lie to us, ESA!!  I pulled up and there were a bunch of men (obviously drunk) hanging over the second floor balcony yelling to people in the parking lot.  I planned to check in for a minimum of 17 days.  As a woman staying alone, I asked to be on the second or third floor in a non-smoking room.  The girl told me that wasn't available but that I could be on the backside of the hotel at ground level. She told me not to worry because most of the people there had lived at the hotel over a year.  I'm not sure why that was supposed to make me feel better about the place. Before I paid the $810 for my stay, I asked if I could see the room.  She complied and handed me a key.  Upon entry to the room, the smell almost made me black out.  It was a combination of cigarette smoke, mildew and urine.  The room was tiny and dark.  There was no bathtub.  Only a plastic shower pan and curtain.  The furniture looked like it had been chewed on by animals.  I felt sick and scared when I walked out.  I returned the key to the office and I will NEVER return.  Unfortunately, that memory will be etched on my brain for the rest of my life.  DO NOT STAY HERE!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r169821510-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>169821510</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>Worst place ever!!</t>
+  </si>
+  <si>
+    <t>As a woman alone, relocating here I thought it would be safe NOT! It's an old motel 6, with a new name but all the drug dealers and hookers! Left within the hour went up 10 miles to a VERY nice extended stay, WOW, what a night, everyone please stay away! Also had to pay 1 night for the one hour I was there!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded August 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2013</t>
+  </si>
+  <si>
+    <t>As a woman alone, relocating here I thought it would be safe NOT! It's an old motel 6, with a new name but all the drug dealers and hookers! Left within the hour went up 10 miles to a VERY nice extended stay, WOW, what a night, everyone please stay away! Also had to pay 1 night for the one hour I was there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r169070315-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>169070315</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>Not as Represented</t>
+  </si>
+  <si>
+    <t>I've stayed at Extended Stay Hotels for years and have always had great experiences until this year. This hotel was behind an adult toy store, and even though I had a reservation for 2 nights when I went to check in I was told I could only have the room for one night. I was too tired to argue, but when I got to the room it was tiny, had a bar-sized refrigerator, and next to no dishes, glassware and kitchen utensils. The furniture was all damaged and falling apart, and when I tried to use the internet the access code they gave me didn't work. I decided that staying would just make me miserable so I checked out and found a much better option. As a woman traveling alone I didn't feel safe here, and will rethink staying at an Extended Stay again after this experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2013</t>
+  </si>
+  <si>
+    <t>I've stayed at Extended Stay Hotels for years and have always had great experiences until this year. This hotel was behind an adult toy store, and even though I had a reservation for 2 nights when I went to check in I was told I could only have the room for one night. I was too tired to argue, but when I got to the room it was tiny, had a bar-sized refrigerator, and next to no dishes, glassware and kitchen utensils. The furniture was all damaged and falling apart, and when I tried to use the internet the access code they gave me didn't work. I decided that staying would just make me miserable so I checked out and found a much better option. As a woman traveling alone I didn't feel safe here, and will rethink staying at an Extended Stay again after this experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r166510904-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>166510904</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>worst hotel ever</t>
+  </si>
+  <si>
+    <t>worst hotel ever checked in late..lobby closed had to call a number to wake clerk up from ouside wall ...smoking room asked for non-smokingwent back to change rooms had to call again from outside phonenext room key didn't workfinally got into room 45 min later this is at midnight very tired... room not cleanedbed sheet were fresh ..i hope slept for 4-5 hrs woke up cancelled four day reservation and this is first reveiw ever  written this place was that badMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded July 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2013</t>
+  </si>
+  <si>
+    <t>worst hotel ever checked in late..lobby closed had to call a number to wake clerk up from ouside wall ...smoking room asked for non-smokingwent back to change rooms had to call again from outside phonenext room key didn't workfinally got into room 45 min later this is at midnight very tired... room not cleanedbed sheet were fresh ..i hope slept for 4-5 hrs woke up cancelled four day reservation and this is first reveiw ever  written this place was that badMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r163566736-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>163566736</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>Nice Place to stay</t>
+  </si>
+  <si>
+    <t>I've read the reviews on trip advisor prior to coming to the woodlands so i was expecting a very horrible and ran down hotel... NOT TRUE.. My credit card information was stolen at the airport and was unable to charge my room to my card so Porsha and her Manager ( i wish i knew her name) was very understanding and very helpful. Porsha made my husband and i feel very comfortable and at ease like everything was going to be ok. If i had to give a number rating i would be a 20+. If Porsha and her Manager is able to see this JOB WELL DONE LADIES i appreciate everything you ladies did for me and my family because of you two my family and i will be staying back at there THANK YOU.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded June 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2013</t>
+  </si>
+  <si>
+    <t>I've read the reviews on trip advisor prior to coming to the woodlands so i was expecting a very horrible and ran down hotel... NOT TRUE.. My credit card information was stolen at the airport and was unable to charge my room to my card so Porsha and her Manager ( i wish i knew her name) was very understanding and very helpful. Porsha made my husband and i feel very comfortable and at ease like everything was going to be ok. If i had to give a number rating i would be a 20+. If Porsha and her Manager is able to see this JOB WELL DONE LADIES i appreciate everything you ladies did for me and my family because of you two my family and i will be staying back at there THANK YOU.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r160623862-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>160623862</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Not a pleasant stay.</t>
+  </si>
+  <si>
+    <t>The furnishings were new, modern, and pleasant looking. That's about all I have to say was good.
+I had intended to stay at this hotel for 6 weeks while at my internship, but left after the first night. The room I booked was much small than was I had imagined, and the pictures only show the larger rooms to begin with, which were far more open than the cramped room I received. Not to mention the bathroom, which had no counter space and was the smallest I'd ever had at a hotel. And their so called provided dining and cooking utensils were two of everything, except for the single bowl, which was too small to be of use, and the low quality skillet and small pot.
+I booked a non-smoking room and was given a smoking room, and, much to my protest, they couldn't change me to a non-smoking room. The the air conditioner didn't work properly, the exhaust fan in the bathroom didn't work at all, and the dead bolt didn't close. I had them fill out a maintenance request to try and fix the stench in the room, the exhaust fan, the air conditioner, and the dead bolt. It was 8 pm on Sunday, so maintenance was gone, and they said they would come by the next morning. I left for work and got back in the early evening to find nothing was fixed. 
+I am a fairly...The furnishings were new, modern, and pleasant looking. That's about all I have to say was good.I had intended to stay at this hotel for 6 weeks while at my internship, but left after the first night. The room I booked was much small than was I had imagined, and the pictures only show the larger rooms to begin with, which were far more open than the cramped room I received. Not to mention the bathroom, which had no counter space and was the smallest I'd ever had at a hotel. And their so called provided dining and cooking utensils were two of everything, except for the single bowl, which was too small to be of use, and the low quality skillet and small pot.I booked a non-smoking room and was given a smoking room, and, much to my protest, they couldn't change me to a non-smoking room. The the air conditioner didn't work properly, the exhaust fan in the bathroom didn't work at all, and the dead bolt didn't close. I had them fill out a maintenance request to try and fix the stench in the room, the exhaust fan, the air conditioner, and the dead bolt. It was 8 pm on Sunday, so maintenance was gone, and they said they would come by the next morning. I left for work and got back in the early evening to find nothing was fixed. I am a fairly light sleeper, and was not comfortable at all sleeping. The curtains hardly blocked the bright lights from the outdoor corridor, the sound of the highway just across was an annoyance to put it lightly (to which ear plugs couldn't even drown out), and the lack of a dead bolt definitely reduced my sense of security. On top of that, the smoke in the room bit me again, as my eyes burned and were bloodshot when I woke up from the remaining smoke. Needless to say, when they didn't fix anything the next day, I wasn't going to deal with that a second night.When I did cancel my room, they charged me for both the night I stayed and the day I checked out, even though I hadn't slept there that night and they didn't gave me the room I had reserved, and they nearly tripled the rate I was originally paying.I would not recommend this to anyone who is a light sleeper with any standards of living.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded May 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2013</t>
+  </si>
+  <si>
+    <t>The furnishings were new, modern, and pleasant looking. That's about all I have to say was good.
+I had intended to stay at this hotel for 6 weeks while at my internship, but left after the first night. The room I booked was much small than was I had imagined, and the pictures only show the larger rooms to begin with, which were far more open than the cramped room I received. Not to mention the bathroom, which had no counter space and was the smallest I'd ever had at a hotel. And their so called provided dining and cooking utensils were two of everything, except for the single bowl, which was too small to be of use, and the low quality skillet and small pot.
+I booked a non-smoking room and was given a smoking room, and, much to my protest, they couldn't change me to a non-smoking room. The the air conditioner didn't work properly, the exhaust fan in the bathroom didn't work at all, and the dead bolt didn't close. I had them fill out a maintenance request to try and fix the stench in the room, the exhaust fan, the air conditioner, and the dead bolt. It was 8 pm on Sunday, so maintenance was gone, and they said they would come by the next morning. I left for work and got back in the early evening to find nothing was fixed. 
+I am a fairly...The furnishings were new, modern, and pleasant looking. That's about all I have to say was good.I had intended to stay at this hotel for 6 weeks while at my internship, but left after the first night. The room I booked was much small than was I had imagined, and the pictures only show the larger rooms to begin with, which were far more open than the cramped room I received. Not to mention the bathroom, which had no counter space and was the smallest I'd ever had at a hotel. And their so called provided dining and cooking utensils were two of everything, except for the single bowl, which was too small to be of use, and the low quality skillet and small pot.I booked a non-smoking room and was given a smoking room, and, much to my protest, they couldn't change me to a non-smoking room. The the air conditioner didn't work properly, the exhaust fan in the bathroom didn't work at all, and the dead bolt didn't close. I had them fill out a maintenance request to try and fix the stench in the room, the exhaust fan, the air conditioner, and the dead bolt. It was 8 pm on Sunday, so maintenance was gone, and they said they would come by the next morning. I left for work and got back in the early evening to find nothing was fixed. I am a fairly light sleeper, and was not comfortable at all sleeping. The curtains hardly blocked the bright lights from the outdoor corridor, the sound of the highway just across was an annoyance to put it lightly (to which ear plugs couldn't even drown out), and the lack of a dead bolt definitely reduced my sense of security. On top of that, the smoke in the room bit me again, as my eyes burned and were bloodshot when I woke up from the remaining smoke. Needless to say, when they didn't fix anything the next day, I wasn't going to deal with that a second night.When I did cancel my room, they charged me for both the night I stayed and the day I checked out, even though I hadn't slept there that night and they didn't gave me the room I had reserved, and they nearly tripled the rate I was originally paying.I would not recommend this to anyone who is a light sleeper with any standards of living.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r160211712-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>160211712</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>Old hotel but clean and with great staff</t>
+  </si>
+  <si>
+    <t>This is a motel-type extended stay, and it is pretty run down. I was not feeling very safe to be honest, especially because my room was on the ground floor.However, the room was quite clean, much cleaner than other Extended Stays I have been to. And most of all, the staff was very helpful and polite - both the reception ladies and the manager.The hotel is close to I-45, but a block away, so the noise from the highway is not bad. Ask a room in the back if possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded May 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2013</t>
+  </si>
+  <si>
+    <t>This is a motel-type extended stay, and it is pretty run down. I was not feeling very safe to be honest, especially because my room was on the ground floor.However, the room was quite clean, much cleaner than other Extended Stays I have been to. And most of all, the staff was very helpful and polite - both the reception ladies and the manager.The hotel is close to I-45, but a block away, so the noise from the highway is not bad. Ask a room in the back if possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r155385968-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>155385968</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>Woman's View</t>
+  </si>
+  <si>
+    <t>Arrived frazzled ,followed by a comedy of errors attempting to check in.Young lady by the name of Royce gave me a smile to beat the sun, an extremely pleasant manner, considerate, and thoughtful.Her outstanding customer service made the hectic day disappear. I would like to commend her co-worker Raquel also, the two of them make up a team hard to beat in my eyes.My room was clean, cool.Everything I was promised making the reservation! I would recommend your location to all. Thank you, Janine CurtisMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded March 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2013</t>
+  </si>
+  <si>
+    <t>Arrived frazzled ,followed by a comedy of errors attempting to check in.Young lady by the name of Royce gave me a smile to beat the sun, an extremely pleasant manner, considerate, and thoughtful.Her outstanding customer service made the hectic day disappear. I would like to commend her co-worker Raquel also, the two of them make up a team hard to beat in my eyes.My room was clean, cool.Everything I was promised making the reservation! I would recommend your location to all. Thank you, Janine CurtisMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r154309326-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>154309326</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>Falsely Advertised Hotel Jeopardizes A Pleasant Weekend Adventure</t>
+  </si>
+  <si>
+    <t>~Note: I had to write an article for school. And I did. But it's DEFINITELY true. 
+Six road trip enthused girls traveled to a pleasantly pictured, but actually repellent hotel in The Woodlands, Texas last weekend. 
+When Sophia Spell invited her sisters and friends to join her on a two-night trip to see a concert, Dante John, Gabrielle Piere, Rebecca Goodly, Celia Spell, and Olivia Spell happily consented. 
+Olivia Spell viewed the hotel online and booked a room a week prior to the trip. All six girls piled into Sophia Spell's car Friday night and drove four and a half hours from Lafayette, Louisiana to an Extended Stay America in The Woodlands. 
+Online, Olivia had seen a clean looking, newly built hotel advertising a continental breakfast in the spacious lobby and sanitary, newly decorated rooms. When she and her friends drove up around midnight on March 8, however, she did not see the same inn. “The hotel pictured on the website wasn’t even the same one we drove up to. The pictures I saw of the rooms and the lobby didn’t match up,” she says. “I saw a decent hotel online, but in real life it was just disgusting.” 
+Her fellow travelers shared similar reactions. Rebecca Goodly found the room revolting. “It smelled like wet dogs.” She winces. “The sheets had cigarette holes burned clean through them. The shower sank into the floor and looked as if it hadn’t been...~Note: I had to write an article for school. And I did. But it's DEFINITELY true. Six road trip enthused girls traveled to a pleasantly pictured, but actually repellent hotel in The Woodlands, Texas last weekend. When Sophia Spell invited her sisters and friends to join her on a two-night trip to see a concert, Dante John, Gabrielle Piere, Rebecca Goodly, Celia Spell, and Olivia Spell happily consented. Olivia Spell viewed the hotel online and booked a room a week prior to the trip. All six girls piled into Sophia Spell's car Friday night and drove four and a half hours from Lafayette, Louisiana to an Extended Stay America in The Woodlands. Online, Olivia had seen a clean looking, newly built hotel advertising a continental breakfast in the spacious lobby and sanitary, newly decorated rooms. When she and her friends drove up around midnight on March 8, however, she did not see the same inn. “The hotel pictured on the website wasn’t even the same one we drove up to. The pictures I saw of the rooms and the lobby didn’t match up,” she says. “I saw a decent hotel online, but in real life it was just disgusting.” Her fellow travelers shared similar reactions. Rebecca Goodly found the room revolting. “It smelled like wet dogs.” She winces. “The sheets had cigarette holes burned clean through them. The shower sank into the floor and looked as if it hadn’t been cleaned in weeks.”  Reluctantly, the girls unloaded their luggage into the gross room. They wore socks to avoid walking barefoot on the moldy carpet. Taking turns, they got out of bed in shifts to attempt to get the air conditioner to continue blowing cool air. After a rough night of sleep in beds that carried a nauseating scent, the girls looked forward to leaving the room and eating a satisfying breakfast.Sophia Spell expressed her regrets after hungrily heading to breakfast Saturday morning. “The lobby was the size of an office cubicle. The continental breakfast was a basket of granola bars.” Although the girls thought their situation could not get any worse, more letdowns befell on them. When Olivia Spell went to the front desk requesting more towels, the woman manning the lobby flatly denied her request. Later, when Rebecca took a shower, she discovered no hotel shampoo, conditioner, or soap. Gabrielle Piere, aghast, soon learned that the single toilet paper roll in the bathroom had but a handful of paper left on it. On Saturday night after returning from the concert, Celia Spell screamed upon finding a pesky resident occupying her bed. Dante John killed the small roach with her shoe, smearing its guts across the already grimy headboard. All six girls showered in the vile shower and went to bed reluctantly, eagerly awaiting their escape from the falsely advertised hotel.As soon as morning arrived, the girls high-tailed it out of room 149 at the Extended Stay America Hotel in The Woodlands, Texas. Rebecca recalls her joy when departing: “We were so relieved when we walked out of that room for good and smelled fresh air—not grimy dogs. It was great.”MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded March 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2013</t>
+  </si>
+  <si>
+    <t>~Note: I had to write an article for school. And I did. But it's DEFINITELY true. 
+Six road trip enthused girls traveled to a pleasantly pictured, but actually repellent hotel in The Woodlands, Texas last weekend. 
+When Sophia Spell invited her sisters and friends to join her on a two-night trip to see a concert, Dante John, Gabrielle Piere, Rebecca Goodly, Celia Spell, and Olivia Spell happily consented. 
+Olivia Spell viewed the hotel online and booked a room a week prior to the trip. All six girls piled into Sophia Spell's car Friday night and drove four and a half hours from Lafayette, Louisiana to an Extended Stay America in The Woodlands. 
+Online, Olivia had seen a clean looking, newly built hotel advertising a continental breakfast in the spacious lobby and sanitary, newly decorated rooms. When she and her friends drove up around midnight on March 8, however, she did not see the same inn. “The hotel pictured on the website wasn’t even the same one we drove up to. The pictures I saw of the rooms and the lobby didn’t match up,” she says. “I saw a decent hotel online, but in real life it was just disgusting.” 
+Her fellow travelers shared similar reactions. Rebecca Goodly found the room revolting. “It smelled like wet dogs.” She winces. “The sheets had cigarette holes burned clean through them. The shower sank into the floor and looked as if it hadn’t been...~Note: I had to write an article for school. And I did. But it's DEFINITELY true. Six road trip enthused girls traveled to a pleasantly pictured, but actually repellent hotel in The Woodlands, Texas last weekend. When Sophia Spell invited her sisters and friends to join her on a two-night trip to see a concert, Dante John, Gabrielle Piere, Rebecca Goodly, Celia Spell, and Olivia Spell happily consented. Olivia Spell viewed the hotel online and booked a room a week prior to the trip. All six girls piled into Sophia Spell's car Friday night and drove four and a half hours from Lafayette, Louisiana to an Extended Stay America in The Woodlands. Online, Olivia had seen a clean looking, newly built hotel advertising a continental breakfast in the spacious lobby and sanitary, newly decorated rooms. When she and her friends drove up around midnight on March 8, however, she did not see the same inn. “The hotel pictured on the website wasn’t even the same one we drove up to. The pictures I saw of the rooms and the lobby didn’t match up,” she says. “I saw a decent hotel online, but in real life it was just disgusting.” Her fellow travelers shared similar reactions. Rebecca Goodly found the room revolting. “It smelled like wet dogs.” She winces. “The sheets had cigarette holes burned clean through them. The shower sank into the floor and looked as if it hadn’t been cleaned in weeks.”  Reluctantly, the girls unloaded their luggage into the gross room. They wore socks to avoid walking barefoot on the moldy carpet. Taking turns, they got out of bed in shifts to attempt to get the air conditioner to continue blowing cool air. After a rough night of sleep in beds that carried a nauseating scent, the girls looked forward to leaving the room and eating a satisfying breakfast.Sophia Spell expressed her regrets after hungrily heading to breakfast Saturday morning. “The lobby was the size of an office cubicle. The continental breakfast was a basket of granola bars.” Although the girls thought their situation could not get any worse, more letdowns befell on them. When Olivia Spell went to the front desk requesting more towels, the woman manning the lobby flatly denied her request. Later, when Rebecca took a shower, she discovered no hotel shampoo, conditioner, or soap. Gabrielle Piere, aghast, soon learned that the single toilet paper roll in the bathroom had but a handful of paper left on it. On Saturday night after returning from the concert, Celia Spell screamed upon finding a pesky resident occupying her bed. Dante John killed the small roach with her shoe, smearing its guts across the already grimy headboard. All six girls showered in the vile shower and went to bed reluctantly, eagerly awaiting their escape from the falsely advertised hotel.As soon as morning arrived, the girls high-tailed it out of room 149 at the Extended Stay America Hotel in The Woodlands, Texas. Rebecca recalls her joy when departing: “We were so relieved when we walked out of that room for good and smelled fresh air—not grimy dogs. It was great.”More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r151658970-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>151658970</t>
+  </si>
+  <si>
+    <t>02/08/2013</t>
+  </si>
+  <si>
+    <t>Friendliest Staff in America !!</t>
+  </si>
+  <si>
+    <t>Sam the manager accommodated us upon arrival and when I called and visited the property beforehand.  Royce the Front Desk clerk gave us a nice room in the front and answered all of my questions upon checking in. When I had problems logging into the internet she was so helpful instead of sending me to tech support.   MY ROOM WAS CLEAN ! I and cleaned every week on time.  I also have to stay close to my work so this was a great choice close to at least 5 nice restaurants. Nice comfortable Beds Too !!! lots of pillowsMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded February 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2013</t>
+  </si>
+  <si>
+    <t>Sam the manager accommodated us upon arrival and when I called and visited the property beforehand.  Royce the Front Desk clerk gave us a nice room in the front and answered all of my questions upon checking in. When I had problems logging into the internet she was so helpful instead of sending me to tech support.   MY ROOM WAS CLEAN ! I and cleaned every week on time.  I also have to stay close to my work so this was a great choice close to at least 5 nice restaurants. Nice comfortable Beds Too !!! lots of pillowsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r148676521-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>148676521</t>
+  </si>
+  <si>
+    <t>01/03/2013</t>
+  </si>
+  <si>
+    <t>No way, no how, never again!</t>
+  </si>
+  <si>
+    <t>I checked in on a Friday evening. The front desk clerk that helped me was totally awesome. She works at a different Extended Stay as well and she knows customer service. Excellent employee. That is the only one I encountered there in my 2 week stay, including the knuckle head customer service reprehensive Loraine or Loretta she kept changing her name, assumedly at their corporate headquarters. 
+2 days into the stay the air conditioner started leaking on the carpet, it had froze up and it was like Niagara falls. I called the front desk and the female (absolutely not the one that checked me in) told me that I could change rooms, but there would be a "cleaning fee" for me to pay when I moved into a different room. 
+Either I had to pay to move because their air conditioner was faulty and destroying their already filthy carpet making the room stink worse than it did to start with, not to mention putting my well being at risk, or I could sit in a swamp. That was the 2 choices that the night clerk handed me. I sat in the swamp until the next morning and spoke to the day crew who offered to give me a different room. They didn't offer to do so much as help me carry a bag.
+The second room was not as clean as the first room. But at least the carpet was...I checked in on a Friday evening. The front desk clerk that helped me was totally awesome. She works at a different Extended Stay as well and she knows customer service. Excellent employee. That is the only one I encountered there in my 2 week stay, including the knuckle head customer service reprehensive Loraine or Loretta she kept changing her name, assumedly at their corporate headquarters. 2 days into the stay the air conditioner started leaking on the carpet, it had froze up and it was like Niagara falls. I called the front desk and the female (absolutely not the one that checked me in) told me that I could change rooms, but there would be a "cleaning fee" for me to pay when I moved into a different room. Either I had to pay to move because their air conditioner was faulty and destroying their already filthy carpet making the room stink worse than it did to start with, not to mention putting my well being at risk, or I could sit in a swamp. That was the 2 choices that the night clerk handed me. I sat in the swamp until the next morning and spoke to the day crew who offered to give me a different room. They didn't offer to do so much as help me carry a bag.The second room was not as clean as the first room. But at least the carpet was dry. 7 days into staying in that room the battery in the lock on the door messed up and I couldn't get in. I went to the office and told them and they said they would come up and fix it. They didn't say they were going to wait until the night before I checked out to do it. After asking the manager to come fix it, I figured it would finally be fixed and I would have a working lock to the room I paid cash for and rented for 2 weeks. I waited the first day for someone to fix it and when that didn't happen I went back to the office and asked the Manager again, he was eating his supper and after being up all night working and all day waiting for them to come fix it, I went back to the room where I had to leave my door cracked to get back in and I went to bed. The lock never got fixed that day. The next day I asked 3 times and when it never got fixed I contacted their customer service (980) 345-1600 and got this nitwit Loraine or Loretta (kept changing her name), thinking that I might be able to get them to call the motel and talk to someone about getting the lock fixed. I was wrong.She didn't care about the issues, all she cared about was the fact I must owe them money or I wouldn't be locked out. She INSISTED the only reason my lock wouldn't be working is because I owe THEM money, no other reason. I tried to explain to this idiot that I paid cash for 2 week, she insisted that I had not and I was being locked out for lack of payment. I told her to call the front desk and ask them, but for whatever reason she deemed it a better angle to tell me I hadn't paid and tell me over and over.. if I wanted to be let back in my room, I have to pay what I owe them.  She refused to give me a supervisor. She said they didn't have any. That might just be the problem right there.Basically I was screwed out of 4 days that I paid for because I didn't get what I paid for which was a clean, safe dry room that I had 24 hour access to. The rooms aren't all that great to start with, so the games these people play with their guests make them unlivable! I checked out instead of staying 2 months as I had planned. They made it very clear that my business is not important to them on any level.They didn't offer me the slightest refund for the crap they put me through, not a voucher, not a percentage off. Nada. Which goes to show just how comfortable they are in treating guests like scum. It is the way this place conducts business. And the call center idiot, what can I say but she must have worked here at some point in time.If you want to stay at an Extended Stay go to the one on 45 by Bush airport. It is an EXCELLENT property. I stayed there before coming here so I wouldn't have to drive so far, but it was a HUGE mistake. It may cost a little bit more down at the other one but the rooms down there are spotless and the employees are the best of the best. Don't waist your time or money here. I sent this review to the corporate headquarters since I never heard back from them when Loraine or Loretta said she would call me back after she verified that I was not locked out do to lack of payment. I never heard back from them.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded January 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2013</t>
+  </si>
+  <si>
+    <t>I checked in on a Friday evening. The front desk clerk that helped me was totally awesome. She works at a different Extended Stay as well and she knows customer service. Excellent employee. That is the only one I encountered there in my 2 week stay, including the knuckle head customer service reprehensive Loraine or Loretta she kept changing her name, assumedly at their corporate headquarters. 
+2 days into the stay the air conditioner started leaking on the carpet, it had froze up and it was like Niagara falls. I called the front desk and the female (absolutely not the one that checked me in) told me that I could change rooms, but there would be a "cleaning fee" for me to pay when I moved into a different room. 
+Either I had to pay to move because their air conditioner was faulty and destroying their already filthy carpet making the room stink worse than it did to start with, not to mention putting my well being at risk, or I could sit in a swamp. That was the 2 choices that the night clerk handed me. I sat in the swamp until the next morning and spoke to the day crew who offered to give me a different room. They didn't offer to do so much as help me carry a bag.
+The second room was not as clean as the first room. But at least the carpet was...I checked in on a Friday evening. The front desk clerk that helped me was totally awesome. She works at a different Extended Stay as well and she knows customer service. Excellent employee. That is the only one I encountered there in my 2 week stay, including the knuckle head customer service reprehensive Loraine or Loretta she kept changing her name, assumedly at their corporate headquarters. 2 days into the stay the air conditioner started leaking on the carpet, it had froze up and it was like Niagara falls. I called the front desk and the female (absolutely not the one that checked me in) told me that I could change rooms, but there would be a "cleaning fee" for me to pay when I moved into a different room. Either I had to pay to move because their air conditioner was faulty and destroying their already filthy carpet making the room stink worse than it did to start with, not to mention putting my well being at risk, or I could sit in a swamp. That was the 2 choices that the night clerk handed me. I sat in the swamp until the next morning and spoke to the day crew who offered to give me a different room. They didn't offer to do so much as help me carry a bag.The second room was not as clean as the first room. But at least the carpet was dry. 7 days into staying in that room the battery in the lock on the door messed up and I couldn't get in. I went to the office and told them and they said they would come up and fix it. They didn't say they were going to wait until the night before I checked out to do it. After asking the manager to come fix it, I figured it would finally be fixed and I would have a working lock to the room I paid cash for and rented for 2 weeks. I waited the first day for someone to fix it and when that didn't happen I went back to the office and asked the Manager again, he was eating his supper and after being up all night working and all day waiting for them to come fix it, I went back to the room where I had to leave my door cracked to get back in and I went to bed. The lock never got fixed that day. The next day I asked 3 times and when it never got fixed I contacted their customer service (980) 345-1600 and got this nitwit Loraine or Loretta (kept changing her name), thinking that I might be able to get them to call the motel and talk to someone about getting the lock fixed. I was wrong.She didn't care about the issues, all she cared about was the fact I must owe them money or I wouldn't be locked out. She INSISTED the only reason my lock wouldn't be working is because I owe THEM money, no other reason. I tried to explain to this idiot that I paid cash for 2 week, she insisted that I had not and I was being locked out for lack of payment. I told her to call the front desk and ask them, but for whatever reason she deemed it a better angle to tell me I hadn't paid and tell me over and over.. if I wanted to be let back in my room, I have to pay what I owe them.  She refused to give me a supervisor. She said they didn't have any. That might just be the problem right there.Basically I was screwed out of 4 days that I paid for because I didn't get what I paid for which was a clean, safe dry room that I had 24 hour access to. The rooms aren't all that great to start with, so the games these people play with their guests make them unlivable! I checked out instead of staying 2 months as I had planned. They made it very clear that my business is not important to them on any level.They didn't offer me the slightest refund for the crap they put me through, not a voucher, not a percentage off. Nada. Which goes to show just how comfortable they are in treating guests like scum. It is the way this place conducts business. And the call center idiot, what can I say but she must have worked here at some point in time.If you want to stay at an Extended Stay go to the one on 45 by Bush airport. It is an EXCELLENT property. I stayed there before coming here so I wouldn't have to drive so far, but it was a HUGE mistake. It may cost a little bit more down at the other one but the rooms down there are spotless and the employees are the best of the best. Don't waist your time or money here. I sent this review to the corporate headquarters since I never heard back from them when Loraine or Loretta said she would call me back after she verified that I was not locked out do to lack of payment. I never heard back from them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r148178621-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>148178621</t>
+  </si>
+  <si>
+    <t>12/27/2012</t>
+  </si>
+  <si>
+    <t>I love it here never had any problem and everyone at the front desk is so helpful.</t>
+  </si>
+  <si>
+    <t>I've been at the hotel for little over a year now and never had any problems or issues. The location is great and is close to everything like shopping, dining, concerts etc. It's well kept and everything is upgraded and I love it. They have 32 inch flat screens in every room, new beds, free grab and go breafast every morning with fresh fruit and hot coffee. Samantha in the office is super awesome and so friendly she really goes out of her way to make sure that everyone is happy and always has a smile on her face.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded January 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2013</t>
+  </si>
+  <si>
+    <t>I've been at the hotel for little over a year now and never had any problems or issues. The location is great and is close to everything like shopping, dining, concerts etc. It's well kept and everything is upgraded and I love it. They have 32 inch flat screens in every room, new beds, free grab and go breafast every morning with fresh fruit and hot coffee. Samantha in the office is super awesome and so friendly she really goes out of her way to make sure that everyone is happy and always has a smile on her face.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r148076876-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>148076876</t>
+  </si>
+  <si>
+    <t>12/26/2012</t>
+  </si>
+  <si>
+    <t>Take a trip to the projects....</t>
+  </si>
+  <si>
+    <t>I stayed here for a week and that was 7 days to long. The "kitchen" was nasty, all of the dishes were greasy and had dry food on them, yet, they were unwilling to come clean it up. If I wanted them to clean their mess up, they wanted a cleaning fee, even though it was their filthy mess to start with.
+There is no front desk clerk at night. Someone moved in next to me and then brought a dog in at 1 in the morning. The dog did nothing but bark all night long. Then it started to storm and water came in from around the door soaking the carpet and totally stinking up the room. I asked to be moved and was told... sure but I would have to pay a cleaning fee. WHAT??? Yes. a cleaning fee.
+Then at 9:00 in the morning the fire alarm went off not once but 4 times. Again, no customer service. They didn't bother to call the room and explain to me that it was a false alarm. I had to call them and ask them. G H E T T O!
+Do yourself and your family a favor and stay in a cardboard box under a bridge. It will be cleaner and quieter, and a bum will surely answer your questions far better than this uninformed and lazy staff who are only interested in shaking you down for more...I stayed here for a week and that was 7 days to long. The "kitchen" was nasty, all of the dishes were greasy and had dry food on them, yet, they were unwilling to come clean it up. If I wanted them to clean their mess up, they wanted a cleaning fee, even though it was their filthy mess to start with.There is no front desk clerk at night. Someone moved in next to me and then brought a dog in at 1 in the morning. The dog did nothing but bark all night long. Then it started to storm and water came in from around the door soaking the carpet and totally stinking up the room. I asked to be moved and was told... sure but I would have to pay a cleaning fee. WHAT??? Yes. a cleaning fee.Then at 9:00 in the morning the fire alarm went off not once but 4 times. Again, no customer service. They didn't bother to call the room and explain to me that it was a false alarm. I had to call them and ask them. G H E T T O!Do yourself and your family a favor and stay in a cardboard box under a bridge. It will be cleaner and quieter, and a bum will surely answer your questions far better than this uninformed and lazy staff who are only interested in shaking you down for more money once they get you in this place with no refunds.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded December 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for a week and that was 7 days to long. The "kitchen" was nasty, all of the dishes were greasy and had dry food on them, yet, they were unwilling to come clean it up. If I wanted them to clean their mess up, they wanted a cleaning fee, even though it was their filthy mess to start with.
+There is no front desk clerk at night. Someone moved in next to me and then brought a dog in at 1 in the morning. The dog did nothing but bark all night long. Then it started to storm and water came in from around the door soaking the carpet and totally stinking up the room. I asked to be moved and was told... sure but I would have to pay a cleaning fee. WHAT??? Yes. a cleaning fee.
+Then at 9:00 in the morning the fire alarm went off not once but 4 times. Again, no customer service. They didn't bother to call the room and explain to me that it was a false alarm. I had to call them and ask them. G H E T T O!
+Do yourself and your family a favor and stay in a cardboard box under a bridge. It will be cleaner and quieter, and a bum will surely answer your questions far better than this uninformed and lazy staff who are only interested in shaking you down for more...I stayed here for a week and that was 7 days to long. The "kitchen" was nasty, all of the dishes were greasy and had dry food on them, yet, they were unwilling to come clean it up. If I wanted them to clean their mess up, they wanted a cleaning fee, even though it was their filthy mess to start with.There is no front desk clerk at night. Someone moved in next to me and then brought a dog in at 1 in the morning. The dog did nothing but bark all night long. Then it started to storm and water came in from around the door soaking the carpet and totally stinking up the room. I asked to be moved and was told... sure but I would have to pay a cleaning fee. WHAT??? Yes. a cleaning fee.Then at 9:00 in the morning the fire alarm went off not once but 4 times. Again, no customer service. They didn't bother to call the room and explain to me that it was a false alarm. I had to call them and ask them. G H E T T O!Do yourself and your family a favor and stay in a cardboard box under a bridge. It will be cleaner and quieter, and a bum will surely answer your questions far better than this uninformed and lazy staff who are only interested in shaking you down for more money once they get you in this place with no refunds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r131102696-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>131102696</t>
+  </si>
+  <si>
+    <t>06/01/2012</t>
+  </si>
+  <si>
+    <t>Worst Stay Ever...</t>
+  </si>
+  <si>
+    <t>We made group reservations a year in advance at this location for the Texas IronMan.  The week of the race, this hotel called us and told us that they bumped us and will not be honoring our reservation.  This caused complete chaos because we were traveling in from out of state.  Finally, we got everything resolved after a lot of back and forth.  When we checked in they put 3 of the 4 non-smoking reservations in smoking rooms.  The rooms were very run down looking.  The comforter and sheets must be the originals from when the hotel first opened.  Our towles were not changed out after the first night.  We requested more when management informed us they were out of fresh towels and their washer was broken.  They told us we would have towels before the end of the day.  We did not receive fresh towels until the next morning.  On top of all of this, the staff was very rude and needs some serious customer service training.  We never received one apologie.  I would not recommend this hotel to anybody!!  We travel a lot and have stayed at some pretty bad hotels but this one tops the list, mainly because of the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2012</t>
+  </si>
+  <si>
+    <t>We made group reservations a year in advance at this location for the Texas IronMan.  The week of the race, this hotel called us and told us that they bumped us and will not be honoring our reservation.  This caused complete chaos because we were traveling in from out of state.  Finally, we got everything resolved after a lot of back and forth.  When we checked in they put 3 of the 4 non-smoking reservations in smoking rooms.  The rooms were very run down looking.  The comforter and sheets must be the originals from when the hotel first opened.  Our towles were not changed out after the first night.  We requested more when management informed us they were out of fresh towels and their washer was broken.  They told us we would have towels before the end of the day.  We did not receive fresh towels until the next morning.  On top of all of this, the staff was very rude and needs some serious customer service training.  We never received one apologie.  I would not recommend this hotel to anybody!!  We travel a lot and have stayed at some pretty bad hotels but this one tops the list, mainly because of the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r125748435-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>125748435</t>
+  </si>
+  <si>
+    <t>03/07/2012</t>
+  </si>
+  <si>
+    <t>Just keen for a tween</t>
+  </si>
+  <si>
+    <t>This was the perfect spot for tween stay (between moves). Ashley was a great help at the front desk. She was always very cordial and willing to assist with whatever we needed. A nice variety of restaurants, a grocery store, and a convenience store are walking distance from the hotel; which was a plus. For those travelling, it is very close to the mall and the waterway...lots of entertainment. I'll admit, the beds weren't as comfortable as I'd like; but for the value they're okay. With excellent customer service like I received, I can deal with that for a couple of days. I'd definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded March 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2012</t>
+  </si>
+  <si>
+    <t>This was the perfect spot for tween stay (between moves). Ashley was a great help at the front desk. She was always very cordial and willing to assist with whatever we needed. A nice variety of restaurants, a grocery store, and a convenience store are walking distance from the hotel; which was a plus. For those travelling, it is very close to the mall and the waterway...lots of entertainment. I'll admit, the beds weren't as comfortable as I'd like; but for the value they're okay. With excellent customer service like I received, I can deal with that for a couple of days. I'd definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r121226354-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>121226354</t>
+  </si>
+  <si>
+    <t>11/29/2011</t>
+  </si>
+  <si>
+    <t>This is the nastiest hotel I've ever stayed at. The mattress is stained with something and I feel like we are in a cell block su</t>
+  </si>
+  <si>
+    <t>Do not stay here unless things have hit rock bottom. Bring mattress covers and your own sheets and pillows.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r92887491-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>92887491</t>
+  </si>
+  <si>
+    <t>01/14/2011</t>
+  </si>
+  <si>
+    <t>Hooker hotel and Rat Trap!</t>
+  </si>
+  <si>
+    <t>Gross!  The absolute worst I've motel I've ever been in.  I guess this will teach me to pick the cheapest hotel on hotels.com!  First, we arrived around 1 am and there was no one at the desk.  We had to call on a call box and WAIT for someone to check us in.  We were exhausted after Texas Ren Fest wanted to just flop into bed.  Bathroom was gross!  Hair on the shower walls.  I was a little afraid to go to sleep in such a place.  I crawled into bed and the sheets were still wet!  At least I knew they were clean, but still... When we woke up the next morning, I was horrified at the stained box spring with nothing covering it.  It was literally falling apart. Never again.  You get what you pay for!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>Gross!  The absolute worst I've motel I've ever been in.  I guess this will teach me to pick the cheapest hotel on hotels.com!  First, we arrived around 1 am and there was no one at the desk.  We had to call on a call box and WAIT for someone to check us in.  We were exhausted after Texas Ren Fest wanted to just flop into bed.  Bathroom was gross!  Hair on the shower walls.  I was a little afraid to go to sleep in such a place.  I crawled into bed and the sheets were still wet!  At least I knew they were clean, but still... When we woke up the next morning, I was horrified at the stained box spring with nothing covering it.  It was literally falling apart. Never again.  You get what you pay for!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r12217485-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>12217485</t>
+  </si>
+  <si>
+    <t>01/01/2008</t>
+  </si>
+  <si>
+    <t>A Big Mistake</t>
+  </si>
+  <si>
+    <t>Really bad. I stayed only because I booked the room online and had prepaid. The shower stall was so dirty that I had to purchase shower shoes, which I also wore in the room. The carpets were stained and dirty, the kitchen floor was dirty, there were bugs on the countertop in the morning. Bad all around. And the "queen" bed was a double at best.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r10697922-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>10697922</t>
+  </si>
+  <si>
+    <t>11/08/2007</t>
+  </si>
+  <si>
+    <t>NASTY BROKEN LOUD</t>
+  </si>
+  <si>
+    <t>checked in late and when I went to get in bed I threw the comforter back there was dried food on the inside of it.  The floors havent been vacuumed in weeks and the carpets were very stained.  The shower floor was filthy and the room over all was dirty.  The room was loud as it faced a very busy highway and there were other rooms available on the backside but I was put there anyway.  The door to the bathroom had a broken door knob. I will NEVER&lt; NEVER stay at an extended stay America again.</t>
+  </si>
+  <si>
+    <t>November 2007</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1788,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1820,3414 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" t="s">
+        <v>114</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>178</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>190</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" t="s">
+        <v>114</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>211</v>
+      </c>
+      <c r="J23" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" t="s">
+        <v>214</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>215</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>218</v>
+      </c>
+      <c r="J24" t="s">
+        <v>219</v>
+      </c>
+      <c r="K24" t="s">
+        <v>220</v>
+      </c>
+      <c r="L24" t="s">
+        <v>221</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>222</v>
+      </c>
+      <c r="X24" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>235</v>
+      </c>
+      <c r="O26" t="s">
+        <v>236</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>237</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s">
+        <v>240</v>
+      </c>
+      <c r="L27" t="s">
+        <v>241</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>235</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>242</v>
+      </c>
+      <c r="X27" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>246</v>
+      </c>
+      <c r="J28" t="s">
+        <v>247</v>
+      </c>
+      <c r="K28" t="s">
+        <v>248</v>
+      </c>
+      <c r="L28" t="s">
+        <v>249</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>250</v>
+      </c>
+      <c r="O28" t="s">
+        <v>114</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>251</v>
+      </c>
+      <c r="X28" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" t="s">
+        <v>256</v>
+      </c>
+      <c r="K29" t="s">
+        <v>257</v>
+      </c>
+      <c r="L29" t="s">
+        <v>258</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>259</v>
+      </c>
+      <c r="X29" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" t="s">
+        <v>264</v>
+      </c>
+      <c r="K30" t="s">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s">
+        <v>266</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>267</v>
+      </c>
+      <c r="O30" t="s">
+        <v>268</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>269</v>
+      </c>
+      <c r="X30" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>273</v>
+      </c>
+      <c r="J31" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s">
+        <v>276</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>267</v>
+      </c>
+      <c r="O31" t="s">
+        <v>268</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>277</v>
+      </c>
+      <c r="X31" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>285</v>
+      </c>
+      <c r="X32" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J33" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" t="s">
+        <v>291</v>
+      </c>
+      <c r="L33" t="s">
+        <v>292</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>293</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" t="s">
+        <v>296</v>
+      </c>
+      <c r="K34" t="s">
+        <v>297</v>
+      </c>
+      <c r="L34" t="s">
+        <v>298</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>293</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>300</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>301</v>
+      </c>
+      <c r="J35" t="s">
+        <v>302</v>
+      </c>
+      <c r="K35" t="s">
+        <v>303</v>
+      </c>
+      <c r="L35" t="s">
+        <v>304</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>305</v>
+      </c>
+      <c r="X35" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>308</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" t="s">
+        <v>310</v>
+      </c>
+      <c r="K36" t="s">
+        <v>311</v>
+      </c>
+      <c r="L36" t="s">
+        <v>312</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>313</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>314</v>
+      </c>
+      <c r="X36" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>318</v>
+      </c>
+      <c r="J37" t="s">
+        <v>319</v>
+      </c>
+      <c r="K37" t="s">
+        <v>320</v>
+      </c>
+      <c r="L37" t="s">
+        <v>321</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>322</v>
+      </c>
+      <c r="O37" t="s">
+        <v>114</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>323</v>
+      </c>
+      <c r="X37" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>327</v>
+      </c>
+      <c r="J38" t="s">
+        <v>328</v>
+      </c>
+      <c r="K38" t="s">
+        <v>329</v>
+      </c>
+      <c r="L38" t="s">
+        <v>330</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>322</v>
+      </c>
+      <c r="O38" t="s">
+        <v>114</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>331</v>
+      </c>
+      <c r="X38" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>334</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>335</v>
+      </c>
+      <c r="J39" t="s">
+        <v>336</v>
+      </c>
+      <c r="K39" t="s">
+        <v>337</v>
+      </c>
+      <c r="L39" t="s">
+        <v>338</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>339</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>340</v>
+      </c>
+      <c r="X39" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>343</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>344</v>
+      </c>
+      <c r="J40" t="s">
+        <v>345</v>
+      </c>
+      <c r="K40" t="s">
+        <v>346</v>
+      </c>
+      <c r="L40" t="s">
+        <v>347</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>339</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>348</v>
+      </c>
+      <c r="X40" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>351</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>352</v>
+      </c>
+      <c r="J41" t="s">
+        <v>353</v>
+      </c>
+      <c r="K41" t="s">
+        <v>354</v>
+      </c>
+      <c r="L41" t="s">
+        <v>355</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>356</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>357</v>
+      </c>
+      <c r="X41" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>360</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>361</v>
+      </c>
+      <c r="J42" t="s">
+        <v>362</v>
+      </c>
+      <c r="K42" t="s">
+        <v>363</v>
+      </c>
+      <c r="L42" t="s">
+        <v>364</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>356</v>
+      </c>
+      <c r="O42" t="s">
+        <v>236</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>365</v>
+      </c>
+      <c r="X42" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>368</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>369</v>
+      </c>
+      <c r="J43" t="s">
+        <v>370</v>
+      </c>
+      <c r="K43" t="s">
+        <v>371</v>
+      </c>
+      <c r="L43" t="s">
+        <v>372</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>373</v>
+      </c>
+      <c r="O43" t="s">
+        <v>268</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>374</v>
+      </c>
+      <c r="X43" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>377</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>378</v>
+      </c>
+      <c r="J44" t="s">
+        <v>379</v>
+      </c>
+      <c r="K44" t="s">
+        <v>380</v>
+      </c>
+      <c r="L44" t="s">
+        <v>381</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>382</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>383</v>
+      </c>
+      <c r="X44" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>386</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>387</v>
+      </c>
+      <c r="J45" t="s">
+        <v>388</v>
+      </c>
+      <c r="K45" t="s">
+        <v>389</v>
+      </c>
+      <c r="L45" t="s">
+        <v>390</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>391</v>
+      </c>
+      <c r="X45" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>394</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>395</v>
+      </c>
+      <c r="J46" t="s">
+        <v>396</v>
+      </c>
+      <c r="K46" t="s">
+        <v>397</v>
+      </c>
+      <c r="L46" t="s">
+        <v>398</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>382</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>399</v>
+      </c>
+      <c r="X46" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>402</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>403</v>
+      </c>
+      <c r="J47" t="s">
+        <v>404</v>
+      </c>
+      <c r="K47" t="s">
+        <v>405</v>
+      </c>
+      <c r="L47" t="s">
+        <v>406</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>407</v>
+      </c>
+      <c r="O47" t="s">
+        <v>114</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>408</v>
+      </c>
+      <c r="X47" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>411</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>412</v>
+      </c>
+      <c r="J48" t="s">
+        <v>413</v>
+      </c>
+      <c r="K48" t="s">
+        <v>414</v>
+      </c>
+      <c r="L48" t="s">
+        <v>415</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>416</v>
+      </c>
+      <c r="O48" t="s">
+        <v>114</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>417</v>
+      </c>
+      <c r="X48" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>420</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>421</v>
+      </c>
+      <c r="J49" t="s">
+        <v>422</v>
+      </c>
+      <c r="K49" t="s">
+        <v>423</v>
+      </c>
+      <c r="L49" t="s">
+        <v>424</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>425</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>426</v>
+      </c>
+      <c r="J50" t="s">
+        <v>427</v>
+      </c>
+      <c r="K50" t="s">
+        <v>428</v>
+      </c>
+      <c r="L50" t="s">
+        <v>429</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>430</v>
+      </c>
+      <c r="O50" t="s">
+        <v>236</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>432</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>433</v>
+      </c>
+      <c r="J51" t="s">
+        <v>434</v>
+      </c>
+      <c r="K51" t="s">
+        <v>435</v>
+      </c>
+      <c r="L51" t="s">
+        <v>436</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>437</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>438</v>
+      </c>
+      <c r="J52" t="s">
+        <v>439</v>
+      </c>
+      <c r="K52" t="s">
+        <v>440</v>
+      </c>
+      <c r="L52" t="s">
+        <v>441</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>442</v>
+      </c>
+      <c r="O52" t="s">
+        <v>268</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_229.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_229.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="704">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r576510564-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>106344</t>
+  </si>
+  <si>
+    <t>576510564</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Accommodating staff!</t>
+  </si>
+  <si>
+    <t>Was here just for a few nights but the staff here is so nice, they are so helpful. The rooms were small but cozy, they aren’t very expensive so don’t expect the most but they do what they can. I always see them walking around and they always have a smile!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded April 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2018</t>
+  </si>
+  <si>
+    <t>Was here just for a few nights but the staff here is so nice, they are so helpful. The rooms were small but cozy, they aren’t very expensive so don’t expect the most but they do what they can. I always see them walking around and they always have a smile!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r571819453-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>571819453</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>OK for price And has small kitchen</t>
+  </si>
+  <si>
+    <t>SO SO Hotel... you may be surprised when you get to room &amp; have to go back to front desk for items you need for cooking !  even coffee pot !  they MAY OR MAY NOT HAVE silverware !  they vary as I have found with several stays.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded April 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2018</t>
+  </si>
+  <si>
+    <t>SO SO Hotel... you may be surprised when you get to room &amp; have to go back to front desk for items you need for cooking !  even coffee pot !  they MAY OR MAY NOT HAVE silverware !  they vary as I have found with several stays.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r568434368-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
   </si>
   <si>
-    <t>56701</t>
-  </si>
-  <si>
-    <t>106344</t>
-  </si>
-  <si>
     <t>568434368</t>
   </si>
   <si>
@@ -177,9 +234,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded March 25, 2018</t>
   </si>
   <si>
@@ -241,6 +295,57 @@
   </si>
   <si>
     <t>I have bed-bug bites all over my body from sleeping one night at this filth of an hotel. I booked this room on Priceline.com and is a shame that they endorse/support these type of health hazard hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r564777760-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>564777760</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Amazing staff</t>
+  </si>
+  <si>
+    <t>Great location, near the woodlands with much stuff to do. The staff were really nice and helpful with my questions and needs. The only thing that i would like to see change is the breakfast. It needs a little more variety.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Great location, near the woodlands with much stuff to do. The staff were really nice and helpful with my questions and needs. The only thing that i would like to see change is the breakfast. It needs a little more variety.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r561509938-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>561509938</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Best staff ever!!!</t>
+  </si>
+  <si>
+    <t>They were the best, great place to stay because of staff. I was here for work and I was so comfortable, great place to stay I highly recommend it. Breakfast could be better but everyone was great......MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>They were the best, great place to stay because of staff. I was here for work and I was so comfortable, great place to stay I highly recommend it. Breakfast could be better but everyone was great......More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r561328042-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
@@ -327,6 +432,60 @@
     <t>Lots of Smoking in the Rooms, they seem not to be able to stop it from happening !!!If you are not a smoker I WOULD STAY AWAY from Extended Stay Lots of impurities in the water, very old pipes and equipment if you needMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r548400853-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>548400853</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Drove out to Houston to see a concert  and it was only less then 7 mins away also loved the location because there was plenty of restaurants and a shopping center, gas station near by. Hospitality was great and there was no issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Drove out to Houston to see a concert  and it was only less then 7 mins away also loved the location because there was plenty of restaurants and a shopping center, gas station near by. Hospitality was great and there was no issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r537029198-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>537029198</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Do not stay here please!!!</t>
+  </si>
+  <si>
+    <t>The room smelled with a bad odor everyday I came in.  They sprayed it with fabrese that helped for a minute.  The outside grounds were filthy.  Young people were in the parking lot letting there pit bull ran back and forth unleashed.  The snack and go consisted of small bags of oatmeal.  There was no creamers for the coffee.  I could go on and on, but you get the point.  You could hear the traffic all night.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>The room smelled with a bad odor everyday I came in.  They sprayed it with fabrese that helped for a minute.  The outside grounds were filthy.  Young people were in the parking lot letting there pit bull ran back and forth unleashed.  The snack and go consisted of small bags of oatmeal.  There was no creamers for the coffee.  I could go on and on, but you get the point.  You could hear the traffic all night.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r525603828-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
   </si>
   <si>
@@ -342,9 +501,6 @@
     <t>Made reservation for room through Hotels.com and received confirmation number from hotels.com.   Room guaranteed with valid Mastercard.  Called hotel before actually reaching hotel to get directions and hotel clerk said my reservation was canceled.  I gave her confirmation number and then she changed story and said no credit card was on file.  Wrong.   Basically they gave away my room to someone else for no apparent reason.  Finally clerk (and on-duty manager) admitted they had no more rooms available and she did not know what had happened!  Called Hotels.com and they confirmed all this with the clerk as well.  Nice way to end a 700 mile in a day road trip!MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded September 19, 2017</t>
   </si>
   <si>
@@ -408,6 +564,48 @@
     <t>ROACH INFESTED, drug dealers, rooms not clean, no dishes hardly ever. I would never stay there AGAIN. They never have anything and people hang out all night and drug transactions. Keep away if you canMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r503056023-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>503056023</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay Hotel</t>
+  </si>
+  <si>
+    <t>Staff was rude. You could see into the refrigerator without opening door. Freezer needed to be defrosted so bad, it wouldn't freeze ice. Floors were filthy, needed to be swept and mopped. A/C did not cool very wellMoreShow less</t>
+  </si>
+  <si>
+    <t>Staff was rude. You could see into the refrigerator without opening door. Freezer needed to be defrosted so bad, it wouldn't freeze ice. Floors were filthy, needed to be swept and mopped. A/C did not cool very wellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r502370171-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>502370171</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>No hot water. Girl at front desk was useless and indifferent.</t>
+  </si>
+  <si>
+    <t>No hot water in a section of the hotel. Given another room. No change machine for laundry. Front desk doesn't have change for laundry yet sign states to get change at front desk. Girl at front desk was useless and indifferent. There's no ice machine anywhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2017</t>
+  </si>
+  <si>
+    <t>No hot water in a section of the hotel. Given another room. No change machine for laundry. Front desk doesn't have change for laundry yet sign states to get change at front desk. Girl at front desk was useless and indifferent. There's no ice machine anywhere.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r494860430-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
   </si>
   <si>
@@ -486,6 +684,48 @@
     <t>For the rate that they charge it is difficult to leave a bad review.  However, the only thing good about this place was it had clean towels &amp; linens, and fresh paint on the walls. (Room 317) The shower (no tub) had not been cleaned, it had a bloodstain on the walls and the floor made me wish I had brought shower shoes.  The toilet obviously had not been cleaned at all.  The floors were sticky.  One of the pictures of the hotel show a woman cooking a meal in the kitchen using pots and pans and food on a plate and a coffee maker on the counter.  My room had nothing, not one cooking utensil, dish, glass, nothing.  I had brought food along to save money and had to eat out anyways.  At least the lobby had  coffee and granola bars.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r479487564-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>479487564</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Great Accommodations For Families / Individuals on a Budget</t>
+  </si>
+  <si>
+    <t>Staff is, without exception, top notch and the grounds are very well kept. The rooms are extremely clean and consistently quiet. Bed is comfortable and easy-to-sleep-in.An extra plus is night security to provide peace of mind for you, your vehicle and your room.The men and women who work there are always helpful and friendly and willing to go out of their way to help you with answers to any of your questions. If they can't immediately provide answers they quickly find out and get back to you.Staff bends over backwards to fulfill any needs you and your family members might have.This is a hidden gem that is reasonably priced and a true bargain to help you stretch your vacation / travel budget. They do not "nickel 'n' dime" their gueats.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Staff is, without exception, top notch and the grounds are very well kept. The rooms are extremely clean and consistently quiet. Bed is comfortable and easy-to-sleep-in.An extra plus is night security to provide peace of mind for you, your vehicle and your room.The men and women who work there are always helpful and friendly and willing to go out of their way to help you with answers to any of your questions. If they can't immediately provide answers they quickly find out and get back to you.Staff bends over backwards to fulfill any needs you and your family members might have.This is a hidden gem that is reasonably priced and a true bargain to help you stretch your vacation / travel budget. They do not "nickel 'n' dime" their gueats.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r470067355-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>470067355</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Dont stay here</t>
+  </si>
+  <si>
+    <t>Room had some bugs, smelt of cigarette smoke, bedding had burn hole from a cigarette, curtains collapsed.  Dirty plates left lying around outside one of the rooms. Dingy decor.Keys didnt work. One manageress (but to be fair not all of the staff) was rude and unhelpful.  One of the worst hotels I have ever stayed in (and I have stayed in a lot of hotels).Never stay here, its not worth saving a few bucks.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r461214166-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
   </si>
   <si>
@@ -549,6 +789,51 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r448567724-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>448567724</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Clean Room and Property, but that's pretty much it</t>
+  </si>
+  <si>
+    <t>If you are in The Woodlands as a craftsman for a few days, this is a good choice. If you are in north Houston for any other reason, not so good. Small bed for two people, but it suited our purpose of being very close to a restaurant where we celebrated New Years Eve.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r411423140-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>411423140</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>Relaxing</t>
+  </si>
+  <si>
+    <t>I was rather pleased, I had a clean room, comfy bed. First outing I had alone, I enjoyed it.  I didn't really experience any problems, the desk clerks were all very nice and I had a wonderful time.  Will stay here again sometime in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>I was rather pleased, I had a clean room, comfy bed. First outing I had alone, I enjoyed it.  I didn't really experience any problems, the desk clerks were all very nice and I had a wonderful time.  Will stay here again sometime in the future.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r380622793-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
   </si>
   <si>
@@ -606,6 +891,48 @@
     <t>This is my 1st time to stay in an extended stay hotel below my feedback :-location is in north Houston I45 highway, 40 Minutes drive from down town ,in rush Hour 60-90 minutes. -room is clean with weekly room service and WiFi is good speed .-Parking is free and safe-location is close to restaurants and fast-food main chains-coin laundry room-you can't stay here if you don't have a car,no public transportation at all.Here are the negative points :-my reservation was for 1 month but the last week they increased the weekly rate 60 $!! I talk to the assistant manager many times but no feedback and I must accept or leave.-if you are familiar with the extended stay in Europe, please note that here is another story : less accommodation, more expensive, old property. -I have paid for the breakfast for 32 days and never used it,simply it's not a breakfast and that's the system :you must pay even if you will not eat it.-I arrived one day after 10 PM and my key was not working, they said after 20 minutes that I should reactivate it every week!!-another day:key was not working, front desk said: the policy is to pay before 11 then you can enter the room.Am leaving tomorrow and will never stay here again and even my company employees More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r324894975-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>324894975</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Cheap, but I'll pass next time</t>
+  </si>
+  <si>
+    <t>Got a good rate online for a quick overnight stay in Houston.  The room I was given was clean, but dated.  Free Wi-fi is super slow unless you upgrade to highspeed.  Like most rooms at Extended Stay America there was a mini kitchen, but I did not use it.The bed was comfortable enough and I slept well, but given how tired I was I could have slept anywhere.The worst offense was the lack of hot water for my shower in the AM.  The water never even got far above room temp.  Not a happy camper.  When I reported the issue to the desk clerk, she tried to tell me I didn't have the (single) knob  turned in the right direction.  No "I'm sorry," no nothing. As if I haven't been to scores of hotels and I somehow don't understand how to operate a shower, even when the hot and cold are reversed, as they have been in some places.  So my cold shower must have been my fault, per the desk clerk.   Um, no--it flowed cold on any setting of the knob, thank you.Customer service gets a big fat zero.  With dozens of places to stay along I-45, I'll be giving this ESA a pass next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Got a good rate online for a quick overnight stay in Houston.  The room I was given was clean, but dated.  Free Wi-fi is super slow unless you upgrade to highspeed.  Like most rooms at Extended Stay America there was a mini kitchen, but I did not use it.The bed was comfortable enough and I slept well, but given how tired I was I could have slept anywhere.The worst offense was the lack of hot water for my shower in the AM.  The water never even got far above room temp.  Not a happy camper.  When I reported the issue to the desk clerk, she tried to tell me I didn't have the (single) knob  turned in the right direction.  No "I'm sorry," no nothing. As if I haven't been to scores of hotels and I somehow don't understand how to operate a shower, even when the hot and cold are reversed, as they have been in some places.  So my cold shower must have been my fault, per the desk clerk.   Um, no--it flowed cold on any setting of the knob, thank you.Customer service gets a big fat zero.  With dozens of places to stay along I-45, I'll be giving this ESA a pass next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r303876838-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>303876838</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>A Very Basic, Cheap Place to Spend the Night</t>
+  </si>
+  <si>
+    <t>I booked a single night at this motel through Hotwire.com, meaning I didn't even know which hotel I was staying at until after paying the non-refundable fee. Only then did I see that my friend and I would be staying at this hotel, and the awful reviews both on Google and TripAdvisor. I was quite disturbed, so I emailed the general manager about my concerns with the low ratings. The GM replied back promptly, promising a nice stay. I said I would trust her, and would also write an honest review.Overall, for the price paid, this is a "get-what-you-pay-for" motel that's a good choice if you just need a place to crash for the night. I dealt with two different people at the front desk, and both were helpful and nice. The room itself is quite small, as is the single bed that my friend and I had to share. But, again, it's just a very basic motel. It's not any "louder" than any other motel with exterior-facing doors. If you're looking for luxury accommodations, you'll need to spend several times more money and stay at one of the resorts in The Woodlands.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I booked a single night at this motel through Hotwire.com, meaning I didn't even know which hotel I was staying at until after paying the non-refundable fee. Only then did I see that my friend and I would be staying at this hotel, and the awful reviews both on Google and TripAdvisor. I was quite disturbed, so I emailed the general manager about my concerns with the low ratings. The GM replied back promptly, promising a nice stay. I said I would trust her, and would also write an honest review.Overall, for the price paid, this is a "get-what-you-pay-for" motel that's a good choice if you just need a place to crash for the night. I dealt with two different people at the front desk, and both were helpful and nice. The room itself is quite small, as is the single bed that my friend and I had to share. But, again, it's just a very basic motel. It's not any "louder" than any other motel with exterior-facing doors. If you're looking for luxury accommodations, you'll need to spend several times more money and stay at one of the resorts in The Woodlands.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r302016868-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
   </si>
   <si>
@@ -621,9 +948,6 @@
     <t>Got a good internet rate.  Needed a second bed so the clerk charged $20 a night extra.  Same clerk gave me key to a room with only one bed,  When I got to the room I tried to call the clerk but could not get an answer.  Had to walk around the building to the office only to find it locked and a "be back soon" sign on the door.  Finally got a room with two beds.  It had only one small pillow.  Back to the office to request pillows and another wait.  You can't make this stuff up.  Don't do this.  Pay a little more and spare yourself this kind of grief. The "kitchenette" is 4 feet wide and 2 feet deep.MoreShow less</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>Got a good internet rate.  Needed a second bed so the clerk charged $20 a night extra.  Same clerk gave me key to a room with only one bed,  When I got to the room I tried to call the clerk but could not get an answer.  Had to walk around the building to the office only to find it locked and a "be back soon" sign on the door.  Finally got a room with two beds.  It had only one small pillow.  Back to the office to request pillows and another wait.  You can't make this stuff up.  Don't do this.  Pay a little more and spare yourself this kind of grief. The "kitchenette" is 4 feet wide and 2 feet deep.More</t>
   </si>
   <si>
@@ -658,6 +982,38 @@
   </si>
   <si>
     <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r272654297-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>272654297</t>
+  </si>
+  <si>
+    <t>Horrible, filthy, bug ridden &amp; smells! - does extended stay "corporate" even check on these places?</t>
+  </si>
+  <si>
+    <t>Holy Cow is this place a dump!  If you go to extendedstayamerica.com, it shows you spacious "suites" with a decent size kitchenette, full size refrigerator, bathroom with a vanity &amp; tub, and even boasts they are "well-lit spacious suites".  This place is the polar opposite of everything on their website - from the room, to the laundry facility, to the closet they call a "lobby".  So, I went to this particular place because my husband is working out of town &amp; this is what he found close to the corporate office.  Since he has to pay for his own lodging, this is what he found that was affordable (about $330 a week at end of april, but the failed to tell him the rates went up at beginning of May) - that was a surprise he only learned when I told him there were two different amounts on bank statement... apparently they charge more for a rat-hole in May - like about $80 per week more!!!  There is NO pool, no ice machines, most of the laundry machines are out of order &amp; have been for weeks without repair - and No employees that care if you have a clean, bug-free room.
+ I visited him May 15-17, 2015 to surprise him for his birthday weekend.  He told me a few things over the phone, but nothing could really prepare me for what it actually is.  Let me start with the...Holy Cow is this place a dump!  If you go to extendedstayamerica.com, it shows you spacious "suites" with a decent size kitchenette, full size refrigerator, bathroom with a vanity &amp; tub, and even boasts they are "well-lit spacious suites".  This place is the polar opposite of everything on their website - from the room, to the laundry facility, to the closet they call a "lobby".  So, I went to this particular place because my husband is working out of town &amp; this is what he found close to the corporate office.  Since he has to pay for his own lodging, this is what he found that was affordable (about $330 a week at end of april, but the failed to tell him the rates went up at beginning of May) - that was a surprise he only learned when I told him there were two different amounts on bank statement... apparently they charge more for a rat-hole in May - like about $80 per week more!!!  There is NO pool, no ice machines, most of the laundry machines are out of order &amp; have been for weeks without repair - and No employees that care if you have a clean, bug-free room. I visited him May 15-17, 2015 to surprise him for his birthday weekend.  He told me a few things over the phone, but nothing could really prepare me for what it actually is.  Let me start with the "lobby" - it looks nothing like the website protrays (actually, nothing about this dump looks anything like the website portrays).  It's a very small room you walk in, and 4 steps &amp; you are at the front desk... there are no chairs or any decor of any type in there... kind of reminds you of that "flea bag motel you see in the movies that rents rooms by the hour".  Next, lets talk about the "laundry facility" - again, nothing like the pictures on website - the website would have you believe it's clean, with newer machines, and that they are all in working order.  Not here - they have 4 washers &amp; 8 Dryers - 3 of the 4 washers were actually working, and there were "out of order signs on 5 of the dryers - so while my husband was working, I did his laundry (like a good wife does, lol), and i remembered him saying last week that one of the dryers took his $2 in quarters, it wouldn't turn on.  So I'm of course thinking it was one of the "out of order" dryers, but nope, i just so happened to put money into the same dryer that he did last week - that he said they were supposed to have put a sign on (and obviously never did).  So, because each machine is $2 in quarters, I had just enough to do my 4 loads, and there was a sign that was posted that said quarters are available in the office - so i go to office, tell the girl about the machine, she follows me back to laundry &amp; says "i don't know what's wrong with this today" (although I'm sure she knew it was the exact same broken dryer from a week ago) - and she said, "I'm going to refund you, but I don't have any quarters so I'll have to give you dollar bills" - I asked, well how am I going to dry the load if you don't have any quarters - she told me to go down the street &amp; get change or wait til the manager comes in later that night "around 5 or 8 pm" - -- and this was aroiund 2:30pm!  Oh yes, I forgot to say that when I went to go tell the girl about the machine eating the quarters, as I pulled on the lever to open the door to the laundry room, the door handle actually came off and flew across the room on the floor - i picked it up &amp; pub the handle back on &amp; carefully opened the door to go to the office.  It was very apparent the door had been broken for quite a while, but again, the girl in the office acted surprised when I told her about it.  Important to note that atleast they seemed to be doing something about the ant problem - exactly what I'm not sure, but there was an exterminator in the office when i went in to tell her about the laundry issues.OK - so lets get to the room - personal opinion aside, here are the facts.1. Upon entering room - the stinch hits you as soon as you open the door, smells like somebody smoked a camel in there.2.  The carpet is absolutely filthy, you can see it &amp; if you forget to wear socks or flip flops and your bare feet actually touch the carpet, you feel it.3.  It's supposed to be a "queen room", but the bed is full size at best - not queen.4.  The "Closet" is nothing more than a niche in the wall that is not even wide enough for 2 suitcases to fit at the bottom, and there is no door, just a little curtain you pull to cover it.5.  The kitchenette is nothing like what you see on the website - and from what I heard from other people staying in same place - nothing like any other extended stay america they've stayed at!  There is NO FULL SIZE FRIDGE - instead, there is a "under counter" size fridge (i actually have a pic of that) - and it barely keeps anything cold.  Oh, and the "freezer" part of it doesn't work either, so you can't even make ice, or keep ice, because not cold enough to keep frozen - hubby learned that the hard way!6.  Even though there was no food on counter, and any food or supplies he had was kept in ziplock baggies, there were still sugar ants all over the kitchen!7.  Microwave turntable didn't work, it just clicked.8.  BATHROOM (again, nothing like website depicts) - Sink was wall-mounted single sink w/NO Vanity - so there was no real room to store anything.  There was a shallow shelf mounted very high where you could put only a few items...and you better hope you are very tall, otherwise, you'll never be able to reach it.9.  Toilet had nasty dark rings in it, not sure if they even really clean it.10.  There was a shower stall only (no tub), and a fabric shower curtain barely long enough to cover the "lip of the shower stall" -- therefore, be careful that water isn't getting everywhere.11.  Apparently, housekeeping comes once a week &amp; "cleans" the room.  I can only assume that "cleaning the room" to these people means "maybe change the sheets &amp; make the bed" - and i'm quite certain that it does NOT include changing the blanket to a clean blanket.  I can tell you this - my husband leaves the room every morning between 6:30am - 7am. - and typically doesn't return until after 7pm.  Housekeeping came while he was away.  He got to the room 20 minutes prior to me - and when I arrived, he was sitting at the small desk, working - had not showered upon returning to the room - that's important to note because this is what I observed AFTER housekeeping supposedly "cleaned the room"(A) Dust &amp; dirt on nightstand &amp; top of SMALL dresser that the TV sits on (although the bed was made).(B) Dirty Dish rag left crumpled up by sink (from where my husband did a small amount of dishes)(C) Stove top dirty - had like pepper or something still there,  countertop had dirty spots on it(D) Sink had not been scrubbed out/cleaned - it's stainless steel &amp; you can just tell if it is clean or dirty(E) in the bathroom, there was hair &amp; dirt all over toilet top &amp; around back of toilet seat by tank.... Still had hairs in the shower .... The sink looked like it hadn't been cleaned in quite some time, there was grime around the faucet handles, as well as in the bottom of the sink around the drain - there were also hairs &amp; remnants of whiskers where he had shaved that morning.(F) I highly doubt the floor gets swept - I have medium length blonde hair, but there were a few very long, dark hairs on the floor in the bathroom (i know, the joke is it was probably a girlfriend, lol, but I assure you this is not the case - I've seen the maids, most have long dark hair).(G) Did I mention the towels???  The "clean" towels they provide are VERY stained, and some even come with "hairs embedded in them" - i guess they want to give you a little extra perk! (totally disgusting)I truly hope somebody at the corporate office at Extended Stay America reads this review &amp; does something about the delipatated state of this motel.  The condition of this place is only what you'd expect to see in a run-down, poverty stricken, drug dealing &amp; prostitute infested part of skid row.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holy Cow is this place a dump!  If you go to extendedstayamerica.com, it shows you spacious "suites" with a decent size kitchenette, full size refrigerator, bathroom with a vanity &amp; tub, and even boasts they are "well-lit spacious suites".  This place is the polar opposite of everything on their website - from the room, to the laundry facility, to the closet they call a "lobby".  So, I went to this particular place because my husband is working out of town &amp; this is what he found close to the corporate office.  Since he has to pay for his own lodging, this is what he found that was affordable (about $330 a week at end of april, but the failed to tell him the rates went up at beginning of May) - that was a surprise he only learned when I told him there were two different amounts on bank statement... apparently they charge more for a rat-hole in May - like about $80 per week more!!!  There is NO pool, no ice machines, most of the laundry machines are out of order &amp; have been for weeks without repair - and No employees that care if you have a clean, bug-free room.
+ I visited him May 15-17, 2015 to surprise him for his birthday weekend.  He told me a few things over the phone, but nothing could really prepare me for what it actually is.  Let me start with the...Holy Cow is this place a dump!  If you go to extendedstayamerica.com, it shows you spacious "suites" with a decent size kitchenette, full size refrigerator, bathroom with a vanity &amp; tub, and even boasts they are "well-lit spacious suites".  This place is the polar opposite of everything on their website - from the room, to the laundry facility, to the closet they call a "lobby".  So, I went to this particular place because my husband is working out of town &amp; this is what he found close to the corporate office.  Since he has to pay for his own lodging, this is what he found that was affordable (about $330 a week at end of april, but the failed to tell him the rates went up at beginning of May) - that was a surprise he only learned when I told him there were two different amounts on bank statement... apparently they charge more for a rat-hole in May - like about $80 per week more!!!  There is NO pool, no ice machines, most of the laundry machines are out of order &amp; have been for weeks without repair - and No employees that care if you have a clean, bug-free room. I visited him May 15-17, 2015 to surprise him for his birthday weekend.  He told me a few things over the phone, but nothing could really prepare me for what it actually is.  Let me start with the "lobby" - it looks nothing like the website protrays (actually, nothing about this dump looks anything like the website portrays).  It's a very small room you walk in, and 4 steps &amp; you are at the front desk... there are no chairs or any decor of any type in there... kind of reminds you of that "flea bag motel you see in the movies that rents rooms by the hour".  Next, lets talk about the "laundry facility" - again, nothing like the pictures on website - the website would have you believe it's clean, with newer machines, and that they are all in working order.  Not here - they have 4 washers &amp; 8 Dryers - 3 of the 4 washers were actually working, and there were "out of order signs on 5 of the dryers - so while my husband was working, I did his laundry (like a good wife does, lol), and i remembered him saying last week that one of the dryers took his $2 in quarters, it wouldn't turn on.  So I'm of course thinking it was one of the "out of order" dryers, but nope, i just so happened to put money into the same dryer that he did last week - that he said they were supposed to have put a sign on (and obviously never did).  So, because each machine is $2 in quarters, I had just enough to do my 4 loads, and there was a sign that was posted that said quarters are available in the office - so i go to office, tell the girl about the machine, she follows me back to laundry &amp; says "i don't know what's wrong with this today" (although I'm sure she knew it was the exact same broken dryer from a week ago) - and she said, "I'm going to refund you, but I don't have any quarters so I'll have to give you dollar bills" - I asked, well how am I going to dry the load if you don't have any quarters - she told me to go down the street &amp; get change or wait til the manager comes in later that night "around 5 or 8 pm" - -- and this was aroiund 2:30pm!  Oh yes, I forgot to say that when I went to go tell the girl about the machine eating the quarters, as I pulled on the lever to open the door to the laundry room, the door handle actually came off and flew across the room on the floor - i picked it up &amp; pub the handle back on &amp; carefully opened the door to go to the office.  It was very apparent the door had been broken for quite a while, but again, the girl in the office acted surprised when I told her about it.  Important to note that atleast they seemed to be doing something about the ant problem - exactly what I'm not sure, but there was an exterminator in the office when i went in to tell her about the laundry issues.OK - so lets get to the room - personal opinion aside, here are the facts.1. Upon entering room - the stinch hits you as soon as you open the door, smells like somebody smoked a camel in there.2.  The carpet is absolutely filthy, you can see it &amp; if you forget to wear socks or flip flops and your bare feet actually touch the carpet, you feel it.3.  It's supposed to be a "queen room", but the bed is full size at best - not queen.4.  The "Closet" is nothing more than a niche in the wall that is not even wide enough for 2 suitcases to fit at the bottom, and there is no door, just a little curtain you pull to cover it.5.  The kitchenette is nothing like what you see on the website - and from what I heard from other people staying in same place - nothing like any other extended stay america they've stayed at!  There is NO FULL SIZE FRIDGE - instead, there is a "under counter" size fridge (i actually have a pic of that) - and it barely keeps anything cold.  Oh, and the "freezer" part of it doesn't work either, so you can't even make ice, or keep ice, because not cold enough to keep frozen - hubby learned that the hard way!6.  Even though there was no food on counter, and any food or supplies he had was kept in ziplock baggies, there were still sugar ants all over the kitchen!7.  Microwave turntable didn't work, it just clicked.8.  BATHROOM (again, nothing like website depicts) - Sink was wall-mounted single sink w/NO Vanity - so there was no real room to store anything.  There was a shallow shelf mounted very high where you could put only a few items...and you better hope you are very tall, otherwise, you'll never be able to reach it.9.  Toilet had nasty dark rings in it, not sure if they even really clean it.10.  There was a shower stall only (no tub), and a fabric shower curtain barely long enough to cover the "lip of the shower stall" -- therefore, be careful that water isn't getting everywhere.11.  Apparently, housekeeping comes once a week &amp; "cleans" the room.  I can only assume that "cleaning the room" to these people means "maybe change the sheets &amp; make the bed" - and i'm quite certain that it does NOT include changing the blanket to a clean blanket.  I can tell you this - my husband leaves the room every morning between 6:30am - 7am. - and typically doesn't return until after 7pm.  Housekeeping came while he was away.  He got to the room 20 minutes prior to me - and when I arrived, he was sitting at the small desk, working - had not showered upon returning to the room - that's important to note because this is what I observed AFTER housekeeping supposedly "cleaned the room"(A) Dust &amp; dirt on nightstand &amp; top of SMALL dresser that the TV sits on (although the bed was made).(B) Dirty Dish rag left crumpled up by sink (from where my husband did a small amount of dishes)(C) Stove top dirty - had like pepper or something still there,  countertop had dirty spots on it(D) Sink had not been scrubbed out/cleaned - it's stainless steel &amp; you can just tell if it is clean or dirty(E) in the bathroom, there was hair &amp; dirt all over toilet top &amp; around back of toilet seat by tank.... Still had hairs in the shower .... The sink looked like it hadn't been cleaned in quite some time, there was grime around the faucet handles, as well as in the bottom of the sink around the drain - there were also hairs &amp; remnants of whiskers where he had shaved that morning.(F) I highly doubt the floor gets swept - I have medium length blonde hair, but there were a few very long, dark hairs on the floor in the bathroom (i know, the joke is it was probably a girlfriend, lol, but I assure you this is not the case - I've seen the maids, most have long dark hair).(G) Did I mention the towels???  The "clean" towels they provide are VERY stained, and some even come with "hairs embedded in them" - i guess they want to give you a little extra perk! (totally disgusting)I truly hope somebody at the corporate office at Extended Stay America reads this review &amp; does something about the delipatated state of this motel.  The condition of this place is only what you'd expect to see in a run-down, poverty stricken, drug dealing &amp; prostitute infested part of skid row.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r271355050-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>271355050</t>
+  </si>
+  <si>
+    <t>05/11/2015</t>
+  </si>
+  <si>
+    <t>NEVER EVER STAY THERE UNLESS YOU WANT TO BE EATEN BY BAD BUGS AND FLEAS</t>
+  </si>
+  <si>
+    <t>I chose this place for a friend of mine to stay for a week and this was the worst choice ever! He got bitten by bad bugs and got a very bad allergic reaction. NO JOKE, do not stay at this place! We will try to contact health department! They moved him from one dirty room to another and he did not receive any positive response from staff or management, this hotel should be closed down and put into quarantine!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r264113972-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
@@ -724,6 +1080,54 @@
     <t>My son and I checked into separate rooms of this establishment. At about 1 week, he noticed bug bites (between 50-100)all over his body, including between hid toes. He found a nest of bed bugs under his sheets. The hotel refused to refund his stay as we left the hotel for another. They wished to move him to another room. But we were so very disgusted by the infestation, we felt compelled to leave the property.  Neither the manager, nor corporate would address his departure by refunding his stay which included the second week even though their own pest inspector had documented the infestation!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r250191966-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>250191966</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>Stay somewhere else if you can</t>
+  </si>
+  <si>
+    <t>This was truly one of the worst hotel properties I've ever stayed in. I have stayed at Extended Stay America's before across the country, and been very pleased. This was unsatisfactory in almost every category, but customer service. But unfortunately, the nice customer service people on site could do nothing about the room smell, the uncleanliness of the room, the fact that none of the amenities that should've been in the room were there, the busted out shower pan in the bathroom, the broken stovetop, the broken ventahood, the safety concerns in the area, The sketchy activities going on in the parking lot, etc. We placed a call to corporate to discuss all this last Friday and it is now midday Tuesday with no return call. Should they bother to get back to us and any of this is resolved, I'll be glad to mention that in a revised review. In the meantime, steer clear of this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded January 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2015</t>
+  </si>
+  <si>
+    <t>This was truly one of the worst hotel properties I've ever stayed in. I have stayed at Extended Stay America's before across the country, and been very pleased. This was unsatisfactory in almost every category, but customer service. But unfortunately, the nice customer service people on site could do nothing about the room smell, the uncleanliness of the room, the fact that none of the amenities that should've been in the room were there, the busted out shower pan in the bathroom, the broken stovetop, the broken ventahood, the safety concerns in the area, The sketchy activities going on in the parking lot, etc. We placed a call to corporate to discuss all this last Friday and it is now midday Tuesday with no return call. Should they bother to get back to us and any of this is resolved, I'll be glad to mention that in a revised review. In the meantime, steer clear of this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r242310901-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>242310901</t>
+  </si>
+  <si>
+    <t>12/01/2014</t>
+  </si>
+  <si>
+    <t>System down- No refund</t>
+  </si>
+  <si>
+    <t>So I booked a room for late night check in at this location through Priceline. When I arrived at the hotel, the computer system was down. Since I couldn't check in, I was up at 3am searching for available rooms in the area with a lower budget since I already spent almost 50 dollars for one I couldn't stay in. When I called for a refund, they said I need to call Priceline. Priceline couldn't help and said call Extended Stay. I went back and forth and never did get my money back. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2014</t>
+  </si>
+  <si>
+    <t>So I booked a room for late night check in at this location through Priceline. When I arrived at the hotel, the computer system was down. Since I couldn't check in, I was up at 3am searching for available rooms in the area with a lower budget since I already spent almost 50 dollars for one I couldn't stay in. When I called for a refund, they said I need to call Priceline. Priceline couldn't help and said call Extended Stay. I went back and forth and never did get my money back. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r235812334-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
   </si>
   <si>
@@ -742,9 +1146,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r234452915-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
   </si>
   <si>
@@ -794,6 +1195,54 @@
   </si>
   <si>
     <t>This hotel boosts about being newly renovated in early 2014....what was renovated is beyond me! The room was unclean, had old appliances, old furniture, the front desk personnel could not have provided worse customer service if they wanted too when they could be found and the room was full of flies! We even had a smashed fly on the window and on the towels in the room! Checking in took forever as there was no personnel there and checking out was the same problem. DO NOT stay here, absolute dump! I took pictures of he room and I'm hoping I can upload them somewhere on this site!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r218231388-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>218231388</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Decent Stay, great price</t>
+  </si>
+  <si>
+    <t>Honestly, I was pleasantly surprised by how nice the stay was. I was braced for the worst after all the other reviews people had left and to make matters worse, we got one of the last rooms available. We checked in around midnight, but the lady was very kind in helping us out. She did point us to the wrong end of the hotel to find our room. However, anyone can get turned around, right? The only thing I could find wrong with the room was the towels smelled like smoke and there was a small stain on the shower curtain. Everything else was clean and I felt just fine having my wife and toddler stay with us. It stayed quiet outside until about 9am. Breakfast was a grab and go which was basically a muffin, coffee and fruit. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Honestly, I was pleasantly surprised by how nice the stay was. I was braced for the worst after all the other reviews people had left and to make matters worse, we got one of the last rooms available. We checked in around midnight, but the lady was very kind in helping us out. She did point us to the wrong end of the hotel to find our room. However, anyone can get turned around, right? The only thing I could find wrong with the room was the towels smelled like smoke and there was a small stain on the shower curtain. Everything else was clean and I felt just fine having my wife and toddler stay with us. It stayed quiet outside until about 9am. Breakfast was a grab and go which was basically a muffin, coffee and fruit. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r210088857-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>210088857</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>THE MOST HORRIBLE EXPERIENCE</t>
+  </si>
+  <si>
+    <t>I went to check into the hotel and was told that they gave my room away, It was midnight at this point, and need I mention that the manager assured me that a late check in would be fine. I was left on the street with my daughter to find a hotel. At 1:00a.m. I received a call from the hotel clerk telling me that she realized  that she does have a room and needs to get it clean, Really? At this point I was at the airport begging the hotels to give a room to sleep for a few hours, thanks goodness for Marriott. Stay away from this hotel. Oh  and when I wrote a  letter to this hotel, which I have never done or posted a review, they never replied.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I went to check into the hotel and was told that they gave my room away, It was midnight at this point, and need I mention that the manager assured me that a late check in would be fine. I was left on the street with my daughter to find a hotel. At 1:00a.m. I received a call from the hotel clerk telling me that she realized  that she does have a room and needs to get it clean, Really? At this point I was at the airport begging the hotels to give a room to sleep for a few hours, thanks goodness for Marriott. Stay away from this hotel. Oh  and when I wrote a  letter to this hotel, which I have never done or posted a review, they never replied.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r206612275-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
@@ -838,12 +1287,6 @@
 Within a stones throw (across the entrance of the hotel) there is a pretty good Italian restaurant, Carrabba's and there are a few other restaurants...I had booked a non-smoking room May 14 - May 18. My husband was doing Ironman Texas. On May 14 (at 2 pm) I called the hotel to change our arrival day to May 15. The person on the line asked for the new arrival date. Everything was changed successfully. I asked if we would still be getting our original rate. He said YES. The next day we arrive and they could not find our reservation, they could not give us a non-smoking room and we were being charged a much more expensive rate. I finally found the confirmation number of the booking and after much back and forth I finally got a non-smoking room for the original rate I booked (I have yet to confirm this on my credit card).The non-smoking room smelled of smoke. The kitchen had no pots (two plates, two mugs, two bowls). The microwave plate was not the right one for the microwave and wobbled. The kitchen cabinets were damaged. The toilet had brown spots on the front (disgusting). Old and worn towels and just one bar of soap. The sheets had VERY visible stains. The room is small and you can hear the noise of the traffic (in the room facing the expressway) when the AC kicks off.Within a stones throw (across the entrance of the hotel) there is a pretty good Italian restaurant, Carrabba's and there are a few other restaurants within walking distance.The place is supposedly fully renovated, and still misses offering you accommodations that are relaxing and clean.MoreShow less</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Manager_11525, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded May 22, 2014</t>
   </si>
   <si>
@@ -880,6 +1323,57 @@
     <t>Never in my life have i been to a worse hotel, and I've had some bad ones. The only thing half decent about this place is their staff. I checked in and was immediately dissatisfied. The sheets had stains on them, there were towels were from the Marriot, and other hotels. They told us that our weekly cleaning was on Thursdays and we went 3 weeks without service before I had to raise a fuss. When we asked for new sheets the front desk told us that ALL linens were being washed, I personally have NEVER been to ANY hotel that did not have clean sheets. They do not have blankets here, all they have is what looks to be a felt sheet and you have to REQUEST a blanket. I have never been so appalled by a facility in my life. DO NOT STAY HERE!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r193212836-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>193212836</t>
+  </si>
+  <si>
+    <t>02/05/2014</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>This place is not anything like it's advertised to be.  "Spacious" room doesn't even have a real closet....just a little indention with wire racks and covered with a curtain.  Price given initially did not even mention $25 per day pet fee...given that I could have stayed at the Drury...much nicer and with many more extras.  Bugs noted running around in "fully furnished kitchen"...which is just a few cabinets attached to the side of the bedroom. And worse than ever the bathroom only has a walk-in shower with no tub.  I am disgusted with this place and with Expedia for their total misrepresentation of this establishment. I will never do business with Expedia again because this is the 3rd time they have screwed me.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded February 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2014</t>
+  </si>
+  <si>
+    <t>This place is not anything like it's advertised to be.  "Spacious" room doesn't even have a real closet....just a little indention with wire racks and covered with a curtain.  Price given initially did not even mention $25 per day pet fee...given that I could have stayed at the Drury...much nicer and with many more extras.  Bugs noted running around in "fully furnished kitchen"...which is just a few cabinets attached to the side of the bedroom. And worse than ever the bathroom only has a walk-in shower with no tub.  I am disgusted with this place and with Expedia for their total misrepresentation of this establishment. I will never do business with Expedia again because this is the 3rd time they have screwed me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r179332730-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>179332730</t>
+  </si>
+  <si>
+    <t>10/01/2013</t>
+  </si>
+  <si>
+    <t>can get anything you want here!</t>
+  </si>
+  <si>
+    <t>nice clean comfortable rooms at a good price.friendly staff!the maintence guy handles all problems speedily..Just be ware ladies they have a guest that may approach your man offering her services..her services are not included in the price of your stay..She must be good for bussiness because staff refuses to evict her..MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded October 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2013</t>
+  </si>
+  <si>
+    <t>nice clean comfortable rooms at a good price.friendly staff!the maintence guy handles all problems speedily..Just be ware ladies they have a guest that may approach your man offering her services..her services are not included in the price of your stay..She must be good for bussiness because staff refuses to evict her..More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r177653644-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
   </si>
   <si>
@@ -940,6 +1434,48 @@
     <t>The internet depicted this place as a clean, newly-renovated motel.  Way to lie to us, ESA!!  I pulled up and there were a bunch of men (obviously drunk) hanging over the second floor balcony yelling to people in the parking lot.  I planned to check in for a minimum of 17 days.  As a woman staying alone, I asked to be on the second or third floor in a non-smoking room.  The girl told me that wasn't available but that I could be on the backside of the hotel at ground level. She told me not to worry because most of the people there had lived at the hotel over a year.  I'm not sure why that was supposed to make me feel better about the place. Before I paid the $810 for my stay, I asked if I could see the room.  She complied and handed me a key.  Upon entry to the room, the smell almost made me black out.  It was a combination of cigarette smoke, mildew and urine.  The room was tiny and dark.  There was no bathtub.  Only a plastic shower pan and curtain.  The furniture looked like it had been chewed on by animals.  I felt sick and scared when I walked out.  I returned the key to the office and I will NEVER return.  Unfortunately, that memory will be etched on my brain for the rest of my life.  DO NOT STAY HERE!!!!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r169980413-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>169980413</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Typical</t>
+  </si>
+  <si>
+    <t>This is a typical inexpensive motel.  It's not fancy, the room and bathroom are small, there was no ice machine, the towels were old and rough.  It smelled a little of smoke - not sure if it was a smoking room or not.  But it was very convenient to the concert venue we were going to and easy on/easy off I 45 with enough close-by restaurants so it totally served our purpose.  The room was clean as was the bathroom.  I wouldn't want to stay for an extended period of time but that's me - I like my luxury.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded August 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2013</t>
+  </si>
+  <si>
+    <t>This is a typical inexpensive motel.  It's not fancy, the room and bathroom are small, there was no ice machine, the towels were old and rough.  It smelled a little of smoke - not sure if it was a smoking room or not.  But it was very convenient to the concert venue we were going to and easy on/easy off I 45 with enough close-by restaurants so it totally served our purpose.  The room was clean as was the bathroom.  I wouldn't want to stay for an extended period of time but that's me - I like my luxury.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r169954447-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>169954447</t>
+  </si>
+  <si>
+    <t>Horrible stay</t>
+  </si>
+  <si>
+    <t>I am not gonna waste too much time, the room smelled like armpits and mold. There where stains on the sheets and the mattress had huge stains on it as well.  The customer service was worse, when told about the smell they offered us a smoking room, like it was to smell any better. Never again, dish out a few extra bucks and get another place.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am not gonna waste too much time, the room smelled like armpits and mold. There where stains on the sheets and the mattress had huge stains on it as well.  The customer service was worse, when told about the smell they offered us a smoking room, like it was to smell any better. Never again, dish out a few extra bucks and get another place.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r169821510-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
   </si>
   <si>
@@ -955,12 +1491,6 @@
     <t>As a woman alone, relocating here I thought it would be safe NOT! It's an old motel 6, with a new name but all the drug dealers and hookers! Left within the hour went up 10 miles to a VERY nice extended stay, WOW, what a night, everyone please stay away! Also had to pay 1 night for the one hour I was there!MoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded August 1, 2013</t>
-  </si>
-  <si>
-    <t>Responded August 1, 2013</t>
-  </si>
-  <si>
     <t>As a woman alone, relocating here I thought it would be safe NOT! It's an old motel 6, with a new name but all the drug dealers and hookers! Left within the hour went up 10 miles to a VERY nice extended stay, WOW, what a night, everyone please stay away! Also had to pay 1 night for the one hour I was there!More</t>
   </si>
   <si>
@@ -979,9 +1509,6 @@
     <t>I've stayed at Extended Stay Hotels for years and have always had great experiences until this year. This hotel was behind an adult toy store, and even though I had a reservation for 2 nights when I went to check in I was told I could only have the room for one night. I was too tired to argue, but when I got to the room it was tiny, had a bar-sized refrigerator, and next to no dishes, glassware and kitchen utensils. The furniture was all damaged and falling apart, and when I tried to use the internet the access code they gave me didn't work. I decided that staying would just make me miserable so I checked out and found a much better option. As a woman traveling alone I didn't feel safe here, and will rethink staying at an Extended Stay again after this experience.MoreShow less</t>
   </si>
   <si>
-    <t>July 2013</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded July 26, 2013</t>
   </si>
   <si>
@@ -1016,6 +1543,59 @@
   </si>
   <si>
     <t>worst hotel ever checked in late..lobby closed had to call a number to wake clerk up from ouside wall ...smoking room asked for non-smokingwent back to change rooms had to call again from outside phonenext room key didn't workfinally got into room 45 min later this is at midnight very tired... room not cleanedbed sheet were fresh ..i hope slept for 4-5 hrs woke up cancelled four day reservation and this is first reveiw ever  written this place was that badMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r166202515-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>166202515</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>Worst than a horror movie, BUGS,  FILTHY</t>
+  </si>
+  <si>
+    <t>We stayed over night when a tree fell on our house in June 2012.  Our insurance placed us a this location.  We stated we needed a suite with a separate room for our teenager.  We were given 2 separate rooms, which would have been fine if they were anywhere near each other.  Since this is an outside entrance hotel right on the highway we felt safer with the room near each other.  The other room wasn't even on the SAME side of the hotel.  My daughter and I shared a room with my husband taking the room around the back side.  His room was not clean, the fridge had WET towels in the bottom of it, which the staff seemed aggravated when we asked to have them removed and the fridge wiped dry.  Our room was horrendous! I was dirty, the box springs was ripped, it had bugs and we found toe nail clippings in the floor along with hairs in the tub.  They didn't have another room to move us to and it was late when we checked in.  We had been trying all day to get the insurance company to line things up and had not eaten as well.  We stayed the night, left a huge complaint, which we barely got an apology.  I spent the next 3 hours getting us relocated and telling the insurance company we would NOT be staying in that location.
+Fresh paint on...We stayed over night when a tree fell on our house in June 2012.  Our insurance placed us a this location.  We stated we needed a suite with a separate room for our teenager.  We were given 2 separate rooms, which would have been fine if they were anywhere near each other.  Since this is an outside entrance hotel right on the highway we felt safer with the room near each other.  The other room wasn't even on the SAME side of the hotel.  My daughter and I shared a room with my husband taking the room around the back side.  His room was not clean, the fridge had WET towels in the bottom of it, which the staff seemed aggravated when we asked to have them removed and the fridge wiped dry.  Our room was horrendous! I was dirty, the box springs was ripped, it had bugs and we found toe nail clippings in the floor along with hairs in the tub.  They didn't have another room to move us to and it was late when we checked in.  We had been trying all day to get the insurance company to line things up and had not eaten as well.  We stayed the night, left a huge complaint, which we barely got an apology.  I spent the next 3 hours getting us relocated and telling the insurance company we would NOT be staying in that location.Fresh paint on the walls and cleaning the outside doesn't help when the building should be condemned!!!!!!!!!!!!  No excuse for dirty and unfit!!!!!  Should rate a MINUS 10!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2013</t>
+  </si>
+  <si>
+    <t>We stayed over night when a tree fell on our house in June 2012.  Our insurance placed us a this location.  We stated we needed a suite with a separate room for our teenager.  We were given 2 separate rooms, which would have been fine if they were anywhere near each other.  Since this is an outside entrance hotel right on the highway we felt safer with the room near each other.  The other room wasn't even on the SAME side of the hotel.  My daughter and I shared a room with my husband taking the room around the back side.  His room was not clean, the fridge had WET towels in the bottom of it, which the staff seemed aggravated when we asked to have them removed and the fridge wiped dry.  Our room was horrendous! I was dirty, the box springs was ripped, it had bugs and we found toe nail clippings in the floor along with hairs in the tub.  They didn't have another room to move us to and it was late when we checked in.  We had been trying all day to get the insurance company to line things up and had not eaten as well.  We stayed the night, left a huge complaint, which we barely got an apology.  I spent the next 3 hours getting us relocated and telling the insurance company we would NOT be staying in that location.
+Fresh paint on...We stayed over night when a tree fell on our house in June 2012.  Our insurance placed us a this location.  We stated we needed a suite with a separate room for our teenager.  We were given 2 separate rooms, which would have been fine if they were anywhere near each other.  Since this is an outside entrance hotel right on the highway we felt safer with the room near each other.  The other room wasn't even on the SAME side of the hotel.  My daughter and I shared a room with my husband taking the room around the back side.  His room was not clean, the fridge had WET towels in the bottom of it, which the staff seemed aggravated when we asked to have them removed and the fridge wiped dry.  Our room was horrendous! I was dirty, the box springs was ripped, it had bugs and we found toe nail clippings in the floor along with hairs in the tub.  They didn't have another room to move us to and it was late when we checked in.  We had been trying all day to get the insurance company to line things up and had not eaten as well.  We stayed the night, left a huge complaint, which we barely got an apology.  I spent the next 3 hours getting us relocated and telling the insurance company we would NOT be staying in that location.Fresh paint on the walls and cleaning the outside doesn't help when the building should be condemned!!!!!!!!!!!!  No excuse for dirty and unfit!!!!!  Should rate a MINUS 10!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r164111506-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>164111506</t>
+  </si>
+  <si>
+    <t>06/15/2013</t>
+  </si>
+  <si>
+    <t>Don't go there</t>
+  </si>
+  <si>
+    <t>If you have no choice but to go there, do not use the free breakfast bar. They keep track of everything at that bar and they cancel your reservations, attach the money for other fees and kick you out to recover the cost of the food you stole. Yes, if you use the breakfast bar, they consider you are stealing food. One man had proof his company paid for 2 weeks and they tried to convince him the company stranded him there and they wanted more money from him. The rooms are dirty and disease infested. I had to get treated for a fungal infection after staying there.They said a lady was being greedy because she got more than one cup of coffee from the bar. They said they give each room a pack of coffee to start and she should be getting her coffee out of the vending machine. I said really?. There was no coffee in my room when I checked in, suddenly I was a liar and a thief. Don't go there ... pay the few extra dollars to go to one of the other hotels.  The management and staff there are evil.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded June 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2013</t>
+  </si>
+  <si>
+    <t>If you have no choice but to go there, do not use the free breakfast bar. They keep track of everything at that bar and they cancel your reservations, attach the money for other fees and kick you out to recover the cost of the food you stole. Yes, if you use the breakfast bar, they consider you are stealing food. One man had proof his company paid for 2 weeks and they tried to convince him the company stranded him there and they wanted more money from him. The rooms are dirty and disease infested. I had to get treated for a fungal infection after staying there.They said a lady was being greedy because she got more than one cup of coffee from the bar. They said they give each room a pack of coffee to start and she should be getting her coffee out of the vending machine. I said really?. There was no coffee in my room when I checked in, suddenly I was a liar and a thief. Don't go there ... pay the few extra dollars to go to one of the other hotels.  The management and staff there are evil.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r163566736-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
@@ -1097,6 +1677,65 @@
   </si>
   <si>
     <t>This is a motel-type extended stay, and it is pretty run down. I was not feeling very safe to be honest, especially because my room was on the ground floor.However, the room was quite clean, much cleaner than other Extended Stays I have been to. And most of all, the staff was very helpful and polite - both the reception ladies and the manager.The hotel is close to I-45, but a block away, so the noise from the highway is not bad. Ask a room in the back if possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r158754885-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>158754885</t>
+  </si>
+  <si>
+    <t>04/25/2013</t>
+  </si>
+  <si>
+    <t>Bad experience</t>
+  </si>
+  <si>
+    <t>My son and I came in for one night for a couple of doctors/dentist appointments after moving away from the area.  I am familiar with the area, but not this hotel.  I was sorely disappointed to see what a run down hotel this is in a nice area.  I did not feel safe in this hotel with my young son at all.  I booked a non smoking room, but once we opened the door, it smelled strongly of smoke.  Luckily, my son did not have an asthma flare up due to the smell!  The smoke alarm was missing from the ceiling with wires sticking out.  The carpet was heavily stained to the point we did not want to walk barefoot on it.  The chair was also heavily stained.  The a/c unit was the worst.  It would only kick on very loudly for 5 minutes, and then kick off for 20 and ultimately stopped coming on at all in the middle of the night.  The noise from the other rooms and parking lot was very noisy and disturbing.  We were very warm and did not get much sleep at all.  It really ruined a mother/son getaway together, not to mention I was exhausted driving home the next day.  I have seen other extended stay America's that looked very nice from the outside.  This hotel looked awful!  I do not recommend this hotel to anyone.  It needs to be totally gutted and...My son and I came in for one night for a couple of doctors/dentist appointments after moving away from the area.  I am familiar with the area, but not this hotel.  I was sorely disappointed to see what a run down hotel this is in a nice area.  I did not feel safe in this hotel with my young son at all.  I booked a non smoking room, but once we opened the door, it smelled strongly of smoke.  Luckily, my son did not have an asthma flare up due to the smell!  The smoke alarm was missing from the ceiling with wires sticking out.  The carpet was heavily stained to the point we did not want to walk barefoot on it.  The chair was also heavily stained.  The a/c unit was the worst.  It would only kick on very loudly for 5 minutes, and then kick off for 20 and ultimately stopped coming on at all in the middle of the night.  The noise from the other rooms and parking lot was very noisy and disturbing.  We were very warm and did not get much sleep at all.  It really ruined a mother/son getaway together, not to mention I was exhausted driving home the next day.  I have seen other extended stay America's that looked very nice from the outside.  This hotel looked awful!  I do not recommend this hotel to anyone.  It needs to be totally gutted and redone!  The only reason we stayed is because I could not afford to leave and find another hotel after paying for this one.  I did not contact the front desk staff about anything because I was so shocked and frankly didn't think it would do any good.  When your hotel looks like this, you don't expect the staff to refund your money because they could not have done anything to make anything better for us!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded April 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2013</t>
+  </si>
+  <si>
+    <t>My son and I came in for one night for a couple of doctors/dentist appointments after moving away from the area.  I am familiar with the area, but not this hotel.  I was sorely disappointed to see what a run down hotel this is in a nice area.  I did not feel safe in this hotel with my young son at all.  I booked a non smoking room, but once we opened the door, it smelled strongly of smoke.  Luckily, my son did not have an asthma flare up due to the smell!  The smoke alarm was missing from the ceiling with wires sticking out.  The carpet was heavily stained to the point we did not want to walk barefoot on it.  The chair was also heavily stained.  The a/c unit was the worst.  It would only kick on very loudly for 5 minutes, and then kick off for 20 and ultimately stopped coming on at all in the middle of the night.  The noise from the other rooms and parking lot was very noisy and disturbing.  We were very warm and did not get much sleep at all.  It really ruined a mother/son getaway together, not to mention I was exhausted driving home the next day.  I have seen other extended stay America's that looked very nice from the outside.  This hotel looked awful!  I do not recommend this hotel to anyone.  It needs to be totally gutted and...My son and I came in for one night for a couple of doctors/dentist appointments after moving away from the area.  I am familiar with the area, but not this hotel.  I was sorely disappointed to see what a run down hotel this is in a nice area.  I did not feel safe in this hotel with my young son at all.  I booked a non smoking room, but once we opened the door, it smelled strongly of smoke.  Luckily, my son did not have an asthma flare up due to the smell!  The smoke alarm was missing from the ceiling with wires sticking out.  The carpet was heavily stained to the point we did not want to walk barefoot on it.  The chair was also heavily stained.  The a/c unit was the worst.  It would only kick on very loudly for 5 minutes, and then kick off for 20 and ultimately stopped coming on at all in the middle of the night.  The noise from the other rooms and parking lot was very noisy and disturbing.  We were very warm and did not get much sleep at all.  It really ruined a mother/son getaway together, not to mention I was exhausted driving home the next day.  I have seen other extended stay America's that looked very nice from the outside.  This hotel looked awful!  I do not recommend this hotel to anyone.  It needs to be totally gutted and redone!  The only reason we stayed is because I could not afford to leave and find another hotel after paying for this one.  I did not contact the front desk staff about anything because I was so shocked and frankly didn't think it would do any good.  When your hotel looks like this, you don't expect the staff to refund your money because they could not have done anything to make anything better for us!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r157744839-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>157744839</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>Not what I expected</t>
+  </si>
+  <si>
+    <t>I booked a non-smoking room online and turned up on the Friday night for a weekend booking.  I got checked in no problem, got to the 3rd floor with all my bags to find the key didn't work so had to head back to reception.  These things happen granted.
+Got key sorted, back up to third floor and walked in to be overwhelmed by a terrible smoking stench.  
+Back down to reception to ask why I had a smoking room I was told; "sorry, that's all we have, sorry it does smell a bit"  Friday night, my work office is shut and I'm from out of the USA so have no mobile data plan so made best of a bad situation.  Went to reception to ask for some room freshener because it became a real annoyance.
+First night over; jet lag the second and by Sunday i just had one more sleep then I was out of here and somewhere new.  By now all my clothes and bags smell like the room.  Anyway i turned on the kitchen tap to rinse a cup out and the tap sprays water everywhere.  That helps explain the combined damp smell
+Really really looking forward to checking out in morning and won't be back.  Very frustrated they took my booking for a non smoking room despite none being available.   Wish i just walked to another motel on Saturday now.  At the time i thought...I booked a non-smoking room online and turned up on the Friday night for a weekend booking.  I got checked in no problem, got to the 3rd floor with all my bags to find the key didn't work so had to head back to reception.  These things happen granted.Got key sorted, back up to third floor and walked in to be overwhelmed by a terrible smoking stench.  Back down to reception to ask why I had a smoking room I was told; "sorry, that's all we have, sorry it does smell a bit"  Friday night, my work office is shut and I'm from out of the USA so have no mobile data plan so made best of a bad situation.  Went to reception to ask for some room freshener because it became a real annoyance.First night over; jet lag the second and by Sunday i just had one more sleep then I was out of here and somewhere new.  By now all my clothes and bags smell like the room.  Anyway i turned on the kitchen tap to rinse a cup out and the tap sprays water everywhere.  That helps explain the combined damp smellReally really looking forward to checking out in morning and won't be back.  Very frustrated they took my booking for a non smoking room despite none being available.   Wish i just walked to another motel on Saturday now.  At the time i thought just two more nights then I'm gone.  Regret that choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded April 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2013</t>
+  </si>
+  <si>
+    <t>I booked a non-smoking room online and turned up on the Friday night for a weekend booking.  I got checked in no problem, got to the 3rd floor with all my bags to find the key didn't work so had to head back to reception.  These things happen granted.
+Got key sorted, back up to third floor and walked in to be overwhelmed by a terrible smoking stench.  
+Back down to reception to ask why I had a smoking room I was told; "sorry, that's all we have, sorry it does smell a bit"  Friday night, my work office is shut and I'm from out of the USA so have no mobile data plan so made best of a bad situation.  Went to reception to ask for some room freshener because it became a real annoyance.
+First night over; jet lag the second and by Sunday i just had one more sleep then I was out of here and somewhere new.  By now all my clothes and bags smell like the room.  Anyway i turned on the kitchen tap to rinse a cup out and the tap sprays water everywhere.  That helps explain the combined damp smell
+Really really looking forward to checking out in morning and won't be back.  Very frustrated they took my booking for a non smoking room despite none being available.   Wish i just walked to another motel on Saturday now.  At the time i thought...I booked a non-smoking room online and turned up on the Friday night for a weekend booking.  I got checked in no problem, got to the 3rd floor with all my bags to find the key didn't work so had to head back to reception.  These things happen granted.Got key sorted, back up to third floor and walked in to be overwhelmed by a terrible smoking stench.  Back down to reception to ask why I had a smoking room I was told; "sorry, that's all we have, sorry it does smell a bit"  Friday night, my work office is shut and I'm from out of the USA so have no mobile data plan so made best of a bad situation.  Went to reception to ask for some room freshener because it became a real annoyance.First night over; jet lag the second and by Sunday i just had one more sleep then I was out of here and somewhere new.  By now all my clothes and bags smell like the room.  Anyway i turned on the kitchen tap to rinse a cup out and the tap sprays water everywhere.  That helps explain the combined damp smellReally really looking forward to checking out in morning and won't be back.  Very frustrated they took my booking for a non smoking room despite none being available.   Wish i just walked to another motel on Saturday now.  At the time i thought just two more nights then I'm gone.  Regret that choice.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r155385968-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
@@ -1187,6 +1826,51 @@
     <t>Sam the manager accommodated us upon arrival and when I called and visited the property beforehand.  Royce the Front Desk clerk gave us a nice room in the front and answered all of my questions upon checking in. When I had problems logging into the internet she was so helpful instead of sending me to tech support.   MY ROOM WAS CLEAN ! I and cleaned every week on time.  I also have to stay close to my work so this was a great choice close to at least 5 nice restaurants. Nice comfortable Beds Too !!! lots of pillowsMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r151229607-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>151229607</t>
+  </si>
+  <si>
+    <t>02/02/2013</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>The Manager at this location was very accomodating and has been quick to respond and meet my needs while I am staying in The Woodlands.  I needed to extend my stay but had to leave town for a couple of days so asked if I could keep the same room and leave my belongings there.  The manager was understanding and very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Manager at this location was very accomodating and has been quick to respond and meet my needs while I am staying in The Woodlands.  I needed to extend my stay but had to leave town for a couple of days so asked if I could keep the same room and leave my belongings there.  The manager was understanding and very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r151183973-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>151183973</t>
+  </si>
+  <si>
+    <t>02/01/2013</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>From the moment I walked in until I checked out . I was treated by a friendly &amp; courteous staff. The rooms were above average &amp; very clean. The location is great!!! I will be back. I especially liked the weekly rate &amp; the friendly staff &amp; the rooms were very nice for the price. The only negative was the hot water in the shower was not as hot as I like it. But I'm sure they would have tried to fix the problem had I asked.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded February 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2013</t>
+  </si>
+  <si>
+    <t>From the moment I walked in until I checked out . I was treated by a friendly &amp; courteous staff. The rooms were above average &amp; very clean. The location is great!!! I will be back. I especially liked the weekly rate &amp; the friendly staff &amp; the rooms were very nice for the price. The only negative was the hot water in the shower was not as hot as I like it. But I'm sure they would have tried to fix the problem had I asked.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r148676521-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
   </si>
   <si>
@@ -1274,6 +1958,72 @@
 Do yourself and your family a favor and stay in a cardboard box under a bridge. It will be cleaner and quieter, and a bum will surely answer your questions far better than this uninformed and lazy staff who are only interested in shaking you down for more...I stayed here for a week and that was 7 days to long. The "kitchen" was nasty, all of the dishes were greasy and had dry food on them, yet, they were unwilling to come clean it up. If I wanted them to clean their mess up, they wanted a cleaning fee, even though it was their filthy mess to start with.There is no front desk clerk at night. Someone moved in next to me and then brought a dog in at 1 in the morning. The dog did nothing but bark all night long. Then it started to storm and water came in from around the door soaking the carpet and totally stinking up the room. I asked to be moved and was told... sure but I would have to pay a cleaning fee. WHAT??? Yes. a cleaning fee.Then at 9:00 in the morning the fire alarm went off not once but 4 times. Again, no customer service. They didn't bother to call the room and explain to me that it was a false alarm. I had to call them and ask them. G H E T T O!Do yourself and your family a favor and stay in a cardboard box under a bridge. It will be cleaner and quieter, and a bum will surely answer your questions far better than this uninformed and lazy staff who are only interested in shaking you down for more money once they get you in this place with no refunds.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r141508156-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>141508156</t>
+  </si>
+  <si>
+    <t>09/28/2012</t>
+  </si>
+  <si>
+    <t>A gem in a very growing area-peaceful, quiet, yet secure</t>
+  </si>
+  <si>
+    <t>This place is set up to be just what it is-a convenient and relatively inexpensive place to sleep, cook, enjoy widescreen TV and know that no rowdys are allowed. I like to keep to myself, but when I have needed something, the staff is right there to assist. It is close to everything, but the people that live in this area know that this hotel is a special place and it seem to watch after those here. Bryan, Ashley, Merle and the director of maintenance, Alfred, are all first-class and there to serve. Very pleasant surprise.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded October 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2012</t>
+  </si>
+  <si>
+    <t>This place is set up to be just what it is-a convenient and relatively inexpensive place to sleep, cook, enjoy widescreen TV and know that no rowdys are allowed. I like to keep to myself, but when I have needed something, the staff is right there to assist. It is close to everything, but the people that live in this area know that this hotel is a special place and it seem to watch after those here. Bryan, Ashley, Merle and the director of maintenance, Alfred, are all first-class and there to serve. Very pleasant surprise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r141417623-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>141417623</t>
+  </si>
+  <si>
+    <t>09/27/2012</t>
+  </si>
+  <si>
+    <t>If you absolutely need a kitchen ...</t>
+  </si>
+  <si>
+    <t>I'm a frequent visitor to the Woodlands and have logged many nights in hotels.   I wrote a review for Super 8 which is my most common destination.  However, on trips where I was staying weeks, I would go to the Extended Stay.
+What I liked was the kitchen.  It was nice to have the kitchen utencils (when they were actually there) and the ability to heat food up.  My wife was there a few times and cooked a few meals for us when we were tired of restaurants.
+What I dislike is the staff.  There used to be a manager there that was terrible.  Nothing got done, things didn't work, rooms were missing items, and regardless of your complaint, you were ignored.  Whether that has changed or not is unknown.
+I also dislike the internet.  THEY CHARGE for internet access.  Shame on you ESA.
+Walls are thin and you hear everything from room to room.  ESA is filled with people staying semi-long time and you often have people outside their rooms, or on the balconies smoking and talking ... often into the night.
+In comparison, the rooms are small but cozy and the television worked.  I can't say the same for the remote controls - I can't tell how many times I have had to complain about not being able to change channels.
+If you need a hotel room for multiple nights or weeks, and you can tolerate a few...I'm a frequent visitor to the Woodlands and have logged many nights in hotels.   I wrote a review for Super 8 which is my most common destination.  However, on trips where I was staying weeks, I would go to the Extended Stay.What I liked was the kitchen.  It was nice to have the kitchen utencils (when they were actually there) and the ability to heat food up.  My wife was there a few times and cooked a few meals for us when we were tired of restaurants.What I dislike is the staff.  There used to be a manager there that was terrible.  Nothing got done, things didn't work, rooms were missing items, and regardless of your complaint, you were ignored.  Whether that has changed or not is unknown.I also dislike the internet.  THEY CHARGE for internet access.  Shame on you ESA.Walls are thin and you hear everything from room to room.  ESA is filled with people staying semi-long time and you often have people outside their rooms, or on the balconies smoking and talking ... often into the night.In comparison, the rooms are small but cozy and the television worked.  I can't say the same for the remote controls - I can't tell how many times I have had to complain about not being able to change channels.If you need a hotel room for multiple nights or weeks, and you can tolerate a few of the aggravations, then ESA is the place to go ... full kitchen, large bathroom, nice refrigerator and microwave.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded October 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2012</t>
+  </si>
+  <si>
+    <t>I'm a frequent visitor to the Woodlands and have logged many nights in hotels.   I wrote a review for Super 8 which is my most common destination.  However, on trips where I was staying weeks, I would go to the Extended Stay.
+What I liked was the kitchen.  It was nice to have the kitchen utencils (when they were actually there) and the ability to heat food up.  My wife was there a few times and cooked a few meals for us when we were tired of restaurants.
+What I dislike is the staff.  There used to be a manager there that was terrible.  Nothing got done, things didn't work, rooms were missing items, and regardless of your complaint, you were ignored.  Whether that has changed or not is unknown.
+I also dislike the internet.  THEY CHARGE for internet access.  Shame on you ESA.
+Walls are thin and you hear everything from room to room.  ESA is filled with people staying semi-long time and you often have people outside their rooms, or on the balconies smoking and talking ... often into the night.
+In comparison, the rooms are small but cozy and the television worked.  I can't say the same for the remote controls - I can't tell how many times I have had to complain about not being able to change channels.
+If you need a hotel room for multiple nights or weeks, and you can tolerate a few...I'm a frequent visitor to the Woodlands and have logged many nights in hotels.   I wrote a review for Super 8 which is my most common destination.  However, on trips where I was staying weeks, I would go to the Extended Stay.What I liked was the kitchen.  It was nice to have the kitchen utencils (when they were actually there) and the ability to heat food up.  My wife was there a few times and cooked a few meals for us when we were tired of restaurants.What I dislike is the staff.  There used to be a manager there that was terrible.  Nothing got done, things didn't work, rooms were missing items, and regardless of your complaint, you were ignored.  Whether that has changed or not is unknown.I also dislike the internet.  THEY CHARGE for internet access.  Shame on you ESA.Walls are thin and you hear everything from room to room.  ESA is filled with people staying semi-long time and you often have people outside their rooms, or on the balconies smoking and talking ... often into the night.In comparison, the rooms are small but cozy and the television worked.  I can't say the same for the remote controls - I can't tell how many times I have had to complain about not being able to change channels.If you need a hotel room for multiple nights or weeks, and you can tolerate a few of the aggravations, then ESA is the place to go ... full kitchen, large bathroom, nice refrigerator and microwave.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r131102696-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
   </si>
   <si>
@@ -1316,9 +2066,6 @@
     <t>This was the perfect spot for tween stay (between moves). Ashley was a great help at the front desk. She was always very cordial and willing to assist with whatever we needed. A nice variety of restaurants, a grocery store, and a convenience store are walking distance from the hotel; which was a plus. For those travelling, it is very close to the mall and the waterway...lots of entertainment. I'll admit, the beds weren't as comfortable as I'd like; but for the value they're okay. With excellent customer service like I received, I can deal with that for a couple of days. I'd definitely stay again.MoreShow less</t>
   </si>
   <si>
-    <t>January 2012</t>
-  </si>
-  <si>
     <t>ChristopherTM, Manager at Extended Stay America Houston - The Woodlands, responded to this reviewResponded March 18, 2012</t>
   </si>
   <si>
@@ -1343,6 +2090,48 @@
     <t>Do not stay here unless things have hit rock bottom. Bring mattress covers and your own sheets and pillows.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r120802720-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>120802720</t>
+  </si>
+  <si>
+    <t>11/19/2011</t>
+  </si>
+  <si>
+    <t>Depressing</t>
+  </si>
+  <si>
+    <t>Our group reserved several rooms and upon check in was told that not all the reserved rooms were available.  We took what was available after determining how we would manage staying with fewer beds, then discovered the rooms were shabby and unappealing.  The sheets were torn and stained, with cigarette burns.  The entire set -up was not based at all on guest comfort.  After check-out we discovered some valuable items including a retainer and expensive medications and had been left in one of the rooms.  We immediately called and were told there was nothing left or if there had been, it would have been thrown away.  We expressed our frustration with the hotel throwing away valuable items without at least holding onto them for a few hours just in case someone called.  The rooms are grungy, shabby, and unpleasant.  It is not the kind of place that makes for an enjoyable stay and certainly is not a good value when the staff does not care about guests or about guest's belongings.   I would not stay there again.  There are much better options nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Our group reserved several rooms and upon check in was told that not all the reserved rooms were available.  We took what was available after determining how we would manage staying with fewer beds, then discovered the rooms were shabby and unappealing.  The sheets were torn and stained, with cigarette burns.  The entire set -up was not based at all on guest comfort.  After check-out we discovered some valuable items including a retainer and expensive medications and had been left in one of the rooms.  We immediately called and were told there was nothing left or if there had been, it would have been thrown away.  We expressed our frustration with the hotel throwing away valuable items without at least holding onto them for a few hours just in case someone called.  The rooms are grungy, shabby, and unpleasant.  It is not the kind of place that makes for an enjoyable stay and certainly is not a good value when the staff does not care about guests or about guest's belongings.   I would not stay there again.  There are much better options nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r105693000-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>105693000</t>
+  </si>
+  <si>
+    <t>04/26/2011</t>
+  </si>
+  <si>
+    <t>Well, it's cheap</t>
+  </si>
+  <si>
+    <t>The room was OK and a good value, particularly if you want to fix your own food.  However, the one bed in the room was tiny, the towels and linens shabby and there was no hot water in the shower.  The shower issue was a real mystery, as there was hot water in the kitchen sink and bathroom sink.  But after letting the shower run forever, it was still tepid at best.  There appears to be some long term transients staying here and the signs in the parking lot to remove all your valuables is not a good sign.Bottom line, I would pay a little more for some hot water.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>The room was OK and a good value, particularly if you want to fix your own food.  However, the one bed in the room was tiny, the towels and linens shabby and there was no hot water in the shower.  The shower issue was a real mystery, as there was hot water in the kitchen sink and bathroom sink.  But after letting the shower run forever, it was still tepid at best.  There appears to be some long term transients staying here and the signs in the parking lot to remove all your valuables is not a good sign.Bottom line, I would pay a little more for some hot water.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r92887491-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
   </si>
   <si>
@@ -1395,6 +2184,24 @@
   </si>
   <si>
     <t>November 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d106344-r8451967-Extended_Stay_America_Houston_The_Woodlands-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>8451967</t>
+  </si>
+  <si>
+    <t>08/18/2007</t>
+  </si>
+  <si>
+    <t>Not Worth The Price</t>
+  </si>
+  <si>
+    <t>The rooms are dark, dirty and smelly, with a small kitchenette on one side. The photos on the internet are deceptive by incorrectly showing a light, roomy suite, since the rooms are standard motel size. The customers are mostly contractors and perhaps some Katrina refugees. A big noisy fight broke out one night, and management just laughed it off.  If the price was much lower, it might be worth saving some money and for the Woodlands area location, but there are much better deals available. Our clothes still smell of the chemicals they use in the room.</t>
+  </si>
+  <si>
+    <t>August 2007</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +2736,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1940,13 +2747,9 @@
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1994,20 +2797,30 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -2055,29 +2868,23 @@
         <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" t="n">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
         <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2126,13 +2933,13 @@
         <v>79</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
         <v>62</v>
-      </c>
-      <c r="O5" t="s">
-        <v>71</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2144,13 +2951,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -2166,7 +2973,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2175,43 +2982,53 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="n">
         <v>2</v>
       </c>
-      <c r="N6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -2227,7 +3044,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2236,43 +3053,47 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -2288,7 +3109,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2297,47 +3118,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -2353,7 +3170,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2362,42 +3179,32 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -2445,30 +3252,20 @@
         <v>122</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -2507,44 +3304,40 @@
         <v>127</v>
       </c>
       <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
         <v>128</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>129</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
         <v>130</v>
       </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>131</v>
-      </c>
       <c r="O11" t="s">
-        <v>71</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
         <v>132</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>133</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12">
@@ -2560,34 +3353,34 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>135</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>136</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>137</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>138</v>
-      </c>
-      <c r="L12" t="s">
-        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2648,17 +3441,23 @@
         <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
       <c r="Q13" t="n">
         <v>2</v>
       </c>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2710,28 +3509,32 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
         <v>158</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>159</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -2747,48 +3550,62 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>161</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>162</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>163</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>164</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>165</v>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>157</v>
-      </c>
       <c r="O15" t="s">
-        <v>114</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
@@ -2804,7 +3621,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2813,39 +3630,53 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X16" t="s">
+        <v>176</v>
+      </c>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
@@ -2861,7 +3692,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2870,39 +3701,53 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
@@ -2918,7 +3763,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2927,43 +3772,53 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
       <c r="S18" t="n">
         <v>3</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>189</v>
+      </c>
+      <c r="X18" t="s">
+        <v>190</v>
+      </c>
       <c r="Y18" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
@@ -2979,7 +3834,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2988,39 +3843,47 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
+        <v>199</v>
+      </c>
       <c r="Y19" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
@@ -3036,7 +3899,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3045,45 +3908,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
         <v>197</v>
       </c>
       <c r="O20" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>206</v>
+      </c>
+      <c r="X20" t="s">
+        <v>207</v>
+      </c>
       <c r="Y20" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
@@ -3099,7 +3960,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3108,39 +3969,47 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>215</v>
+      </c>
+      <c r="X21" t="s">
+        <v>216</v>
+      </c>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
@@ -3156,7 +4025,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3165,43 +4034,47 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s">
-        <v>114</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>223</v>
+      </c>
+      <c r="X22" t="s">
+        <v>224</v>
+      </c>
       <c r="Y22" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
@@ -3217,7 +4090,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3226,37 +4099,35 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="J23" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3264,7 +4135,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
@@ -3280,7 +4151,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3289,49 +4160,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="J24" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
+      <c r="N24" t="s">
+        <v>237</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="X24" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="Y24" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
@@ -3347,7 +4212,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3356,45 +4221,39 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
+      <c r="N25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>1</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
@@ -3410,7 +4269,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3419,25 +4278,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3451,7 +4310,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
@@ -3467,7 +4326,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3476,47 +4335,45 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>242</v>
-      </c>
-      <c r="X27" t="s">
-        <v>243</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
@@ -3532,7 +4389,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3541,49 +4398,47 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="J28" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="O28" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="X28" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="Y28" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
@@ -3599,7 +4454,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3608,49 +4463,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
+      <c r="N29" t="s">
+        <v>273</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>259</v>
-      </c>
-      <c r="X29" t="s">
-        <v>260</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30">
@@ -3666,7 +4511,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3675,53 +4520,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>279</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
         <v>3</v>
-      </c>
-      <c r="N30" t="s">
-        <v>267</v>
-      </c>
-      <c r="O30" t="s">
-        <v>268</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>269</v>
-      </c>
-      <c r="X30" t="s">
-        <v>270</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31">
@@ -3737,7 +4572,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3746,53 +4581,39 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="K31" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="O31" t="s">
-        <v>268</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>2</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>277</v>
-      </c>
-      <c r="X31" t="s">
-        <v>278</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32">
@@ -3808,7 +4629,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3817,49 +4638,45 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="K32" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>292</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
         <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>285</v>
-      </c>
-      <c r="X32" t="s">
-        <v>286</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33">
@@ -3875,7 +4692,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3884,41 +4701,37 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="J33" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K33" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3926,7 +4739,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34">
@@ -3942,7 +4755,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3951,37 +4764,33 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="J34" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="K34" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="O34" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
       </c>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" t="n">
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
         <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -3993,7 +4802,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35">
@@ -4009,7 +4818,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4018,49 +4827,39 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="J35" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="K35" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+      <c r="N35" t="s">
+        <v>299</v>
+      </c>
+      <c r="O35" t="s">
+        <v>166</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>1</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>305</v>
-      </c>
-      <c r="X35" t="s">
-        <v>306</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36">
@@ -4076,7 +4875,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4085,38 +4884,32 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="J36" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K36" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
       <c r="R36" t="n">
         <v>1</v>
       </c>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>1</v>
@@ -4124,12 +4917,8 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>314</v>
-      </c>
-      <c r="X36" t="s">
-        <v>315</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
         <v>316</v>
       </c>
@@ -4147,7 +4936,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4156,10 +4945,10 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J37" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K37" t="s">
         <v>320</v>
@@ -4171,20 +4960,16 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="O37" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
       </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
         <v>1</v>
       </c>
@@ -4195,14 +4980,10 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>323</v>
-      </c>
-      <c r="X37" t="s">
-        <v>324</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38">
@@ -4218,62 +4999,52 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>324</v>
+      </c>
+      <c r="J38" t="s">
+        <v>325</v>
+      </c>
+      <c r="K38" t="s">
         <v>326</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="L38" t="s">
         <v>327</v>
       </c>
-      <c r="J38" t="s">
-        <v>328</v>
-      </c>
-      <c r="K38" t="s">
-        <v>329</v>
-      </c>
-      <c r="L38" t="s">
-        <v>330</v>
-      </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="O38" t="s">
-        <v>114</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
       <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>331</v>
-      </c>
-      <c r="X38" t="s">
-        <v>332</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39">
@@ -4289,7 +5060,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4298,53 +5069,45 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J39" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K39" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>2</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>340</v>
-      </c>
-      <c r="X39" t="s">
-        <v>341</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
@@ -4360,7 +5123,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4369,53 +5132,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="J40" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K40" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L40" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
-      </c>
-      <c r="N40" t="s">
-        <v>339</v>
-      </c>
-      <c r="O40" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
       <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
         <v>5</v>
       </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2</v>
-      </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="X40" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="Y40" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41">
@@ -4431,7 +5190,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4440,53 +5199,45 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J41" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K41" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="L41" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>356</v>
-      </c>
-      <c r="O41" t="s">
-        <v>71</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>357</v>
-      </c>
-      <c r="X41" t="s">
-        <v>358</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42">
@@ -4502,7 +5253,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4511,53 +5262,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="J42" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K42" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="L42" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
         <v>2</v>
       </c>
-      <c r="N42" t="s">
-        <v>356</v>
-      </c>
-      <c r="O42" t="s">
-        <v>236</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="X42" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="Y42" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43">
@@ -4573,7 +5320,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4582,53 +5329,39 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="J43" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="K43" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="L43" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s">
-        <v>373</v>
-      </c>
-      <c r="O43" t="s">
-        <v>268</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="X43" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="Y43" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44">
@@ -4644,7 +5377,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4653,53 +5386,39 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="J44" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="K44" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="L44" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>1</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>383</v>
-      </c>
-      <c r="X44" t="s">
-        <v>384</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45">
@@ -4715,7 +5434,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4724,49 +5443,47 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="J45" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="K45" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="L45" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
-      </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>369</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="X45" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="Y45" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46">
@@ -4782,7 +5499,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4791,35 +5508,31 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="J46" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="K46" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="L46" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
         <v>1</v>
       </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
         <v>1</v>
       </c>
@@ -4831,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="X46" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="Y46" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47">
@@ -4853,7 +5566,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4862,53 +5575,47 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="J47" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="K47" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="L47" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="O47" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="X47" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="Y47" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48">
@@ -4924,7 +5631,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4933,53 +5640,49 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="J48" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="K48" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="L48" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="O48" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="P48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>417</v>
-      </c>
-      <c r="X48" t="s">
-        <v>418</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49">
@@ -4995,7 +5698,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5004,16 +5707,16 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="J49" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="K49" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
@@ -5021,28 +5724,32 @@
       <c r="N49" t="s"/>
       <c r="O49" t="s"/>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>408</v>
+      </c>
+      <c r="X49" t="s">
+        <v>409</v>
+      </c>
       <c r="Y49" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50">
@@ -5058,7 +5765,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5067,49 +5774,53 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="J50" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="K50" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="L50" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="O50" t="s">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
         <v>3</v>
       </c>
-      <c r="Q50" t="n">
-        <v>1</v>
-      </c>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S50" t="n">
         <v>2</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>416</v>
+      </c>
+      <c r="X50" t="s">
+        <v>417</v>
+      </c>
       <c r="Y50" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51">
@@ -5125,7 +5836,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5134,35 +5845,53 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="J51" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="K51" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="L51" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+      <c r="N51" t="s">
+        <v>401</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>424</v>
+      </c>
+      <c r="X51" t="s">
+        <v>425</v>
+      </c>
       <c r="Y51" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="52">
@@ -5178,7 +5907,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5187,25 +5916,25 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="J52" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="K52" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="L52" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="O52" t="s">
-        <v>268</v>
+        <v>62</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -5216,18 +5945,2437 @@
       <c r="R52" t="n">
         <v>2</v>
       </c>
-      <c r="S52" t="s"/>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>433</v>
+      </c>
+      <c r="X52" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>436</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>437</v>
+      </c>
+      <c r="J53" t="s">
+        <v>438</v>
+      </c>
+      <c r="K53" t="s">
+        <v>439</v>
+      </c>
+      <c r="L53" t="s">
+        <v>440</v>
+      </c>
+      <c r="M53" t="n">
         <v>3</v>
       </c>
-      <c r="V52" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s">
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
         <v>441</v>
+      </c>
+      <c r="X53" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>444</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>445</v>
+      </c>
+      <c r="J54" t="s">
+        <v>446</v>
+      </c>
+      <c r="K54" t="s">
+        <v>447</v>
+      </c>
+      <c r="L54" t="s">
+        <v>448</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>449</v>
+      </c>
+      <c r="X54" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>452</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>453</v>
+      </c>
+      <c r="J55" t="s">
+        <v>454</v>
+      </c>
+      <c r="K55" t="s">
+        <v>455</v>
+      </c>
+      <c r="L55" t="s">
+        <v>456</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>457</v>
+      </c>
+      <c r="O55" t="s">
+        <v>62</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>458</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>459</v>
+      </c>
+      <c r="J56" t="s">
+        <v>460</v>
+      </c>
+      <c r="K56" t="s">
+        <v>461</v>
+      </c>
+      <c r="L56" t="s">
+        <v>462</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>457</v>
+      </c>
+      <c r="O56" t="s">
+        <v>89</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>464</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>465</v>
+      </c>
+      <c r="J57" t="s">
+        <v>466</v>
+      </c>
+      <c r="K57" t="s">
+        <v>467</v>
+      </c>
+      <c r="L57" t="s">
+        <v>468</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>469</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>470</v>
+      </c>
+      <c r="X57" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>474</v>
+      </c>
+      <c r="J58" t="s">
+        <v>466</v>
+      </c>
+      <c r="K58" t="s">
+        <v>475</v>
+      </c>
+      <c r="L58" t="s">
+        <v>476</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>469</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>470</v>
+      </c>
+      <c r="X58" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>478</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>479</v>
+      </c>
+      <c r="J59" t="s">
+        <v>480</v>
+      </c>
+      <c r="K59" t="s">
+        <v>481</v>
+      </c>
+      <c r="L59" t="s">
+        <v>482</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>470</v>
+      </c>
+      <c r="X59" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>484</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>485</v>
+      </c>
+      <c r="J60" t="s">
+        <v>486</v>
+      </c>
+      <c r="K60" t="s">
+        <v>487</v>
+      </c>
+      <c r="L60" t="s">
+        <v>488</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>469</v>
+      </c>
+      <c r="O60" t="s">
+        <v>62</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>489</v>
+      </c>
+      <c r="X60" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>492</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>493</v>
+      </c>
+      <c r="J61" t="s">
+        <v>494</v>
+      </c>
+      <c r="K61" t="s">
+        <v>495</v>
+      </c>
+      <c r="L61" t="s">
+        <v>496</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>497</v>
+      </c>
+      <c r="O61" t="s">
+        <v>166</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>498</v>
+      </c>
+      <c r="X61" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>501</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>502</v>
+      </c>
+      <c r="J62" t="s">
+        <v>503</v>
+      </c>
+      <c r="K62" t="s">
+        <v>504</v>
+      </c>
+      <c r="L62" t="s">
+        <v>505</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>506</v>
+      </c>
+      <c r="O62" t="s">
+        <v>166</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>507</v>
+      </c>
+      <c r="X62" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>510</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>511</v>
+      </c>
+      <c r="J63" t="s">
+        <v>512</v>
+      </c>
+      <c r="K63" t="s">
+        <v>513</v>
+      </c>
+      <c r="L63" t="s">
+        <v>514</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>497</v>
+      </c>
+      <c r="O63" t="s">
+        <v>89</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>515</v>
+      </c>
+      <c r="X63" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>518</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>519</v>
+      </c>
+      <c r="J64" t="s">
+        <v>520</v>
+      </c>
+      <c r="K64" t="s">
+        <v>521</v>
+      </c>
+      <c r="L64" t="s">
+        <v>522</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>497</v>
+      </c>
+      <c r="O64" t="s">
+        <v>166</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>523</v>
+      </c>
+      <c r="X64" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>526</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>527</v>
+      </c>
+      <c r="J65" t="s">
+        <v>528</v>
+      </c>
+      <c r="K65" t="s">
+        <v>529</v>
+      </c>
+      <c r="L65" t="s">
+        <v>530</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>531</v>
+      </c>
+      <c r="O65" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>532</v>
+      </c>
+      <c r="X65" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>535</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>536</v>
+      </c>
+      <c r="J66" t="s">
+        <v>537</v>
+      </c>
+      <c r="K66" t="s">
+        <v>538</v>
+      </c>
+      <c r="L66" t="s">
+        <v>539</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>531</v>
+      </c>
+      <c r="O66" t="s">
+        <v>62</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>540</v>
+      </c>
+      <c r="X66" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>543</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>544</v>
+      </c>
+      <c r="J67" t="s">
+        <v>545</v>
+      </c>
+      <c r="K67" t="s">
+        <v>546</v>
+      </c>
+      <c r="L67" t="s">
+        <v>547</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>548</v>
+      </c>
+      <c r="O67" t="s">
+        <v>166</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>549</v>
+      </c>
+      <c r="X67" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>552</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>553</v>
+      </c>
+      <c r="J68" t="s">
+        <v>554</v>
+      </c>
+      <c r="K68" t="s">
+        <v>555</v>
+      </c>
+      <c r="L68" t="s">
+        <v>556</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>548</v>
+      </c>
+      <c r="O68" t="s">
+        <v>62</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>557</v>
+      </c>
+      <c r="X68" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>560</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>561</v>
+      </c>
+      <c r="J69" t="s">
+        <v>562</v>
+      </c>
+      <c r="K69" t="s">
+        <v>563</v>
+      </c>
+      <c r="L69" t="s">
+        <v>564</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>565</v>
+      </c>
+      <c r="O69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>566</v>
+      </c>
+      <c r="X69" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>569</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>570</v>
+      </c>
+      <c r="J70" t="s">
+        <v>571</v>
+      </c>
+      <c r="K70" t="s">
+        <v>572</v>
+      </c>
+      <c r="L70" t="s">
+        <v>573</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>565</v>
+      </c>
+      <c r="O70" t="s">
+        <v>98</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>574</v>
+      </c>
+      <c r="X70" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>577</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>578</v>
+      </c>
+      <c r="J71" t="s">
+        <v>579</v>
+      </c>
+      <c r="K71" t="s">
+        <v>580</v>
+      </c>
+      <c r="L71" t="s">
+        <v>581</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>582</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>583</v>
+      </c>
+      <c r="X71" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>586</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>587</v>
+      </c>
+      <c r="J72" t="s">
+        <v>588</v>
+      </c>
+      <c r="K72" t="s">
+        <v>589</v>
+      </c>
+      <c r="L72" t="s">
+        <v>590</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>582</v>
+      </c>
+      <c r="O72" t="s">
+        <v>62</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>583</v>
+      </c>
+      <c r="X72" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>592</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>593</v>
+      </c>
+      <c r="J73" t="s">
+        <v>594</v>
+      </c>
+      <c r="K73" t="s">
+        <v>595</v>
+      </c>
+      <c r="L73" t="s">
+        <v>596</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>597</v>
+      </c>
+      <c r="O73" t="s">
+        <v>62</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>598</v>
+      </c>
+      <c r="X73" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>601</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>602</v>
+      </c>
+      <c r="J74" t="s">
+        <v>603</v>
+      </c>
+      <c r="K74" t="s">
+        <v>604</v>
+      </c>
+      <c r="L74" t="s">
+        <v>605</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>606</v>
+      </c>
+      <c r="O74" t="s">
+        <v>62</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>607</v>
+      </c>
+      <c r="X74" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>610</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>611</v>
+      </c>
+      <c r="J75" t="s">
+        <v>612</v>
+      </c>
+      <c r="K75" t="s">
+        <v>613</v>
+      </c>
+      <c r="L75" t="s">
+        <v>614</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>615</v>
+      </c>
+      <c r="X75" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>618</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>619</v>
+      </c>
+      <c r="J76" t="s">
+        <v>620</v>
+      </c>
+      <c r="K76" t="s">
+        <v>621</v>
+      </c>
+      <c r="L76" t="s">
+        <v>622</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>606</v>
+      </c>
+      <c r="O76" t="s">
+        <v>62</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>623</v>
+      </c>
+      <c r="X76" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>626</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>627</v>
+      </c>
+      <c r="J77" t="s">
+        <v>628</v>
+      </c>
+      <c r="K77" t="s">
+        <v>629</v>
+      </c>
+      <c r="L77" t="s">
+        <v>630</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>631</v>
+      </c>
+      <c r="O77" t="s">
+        <v>62</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>632</v>
+      </c>
+      <c r="X77" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>635</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>636</v>
+      </c>
+      <c r="J78" t="s">
+        <v>637</v>
+      </c>
+      <c r="K78" t="s">
+        <v>638</v>
+      </c>
+      <c r="L78" t="s">
+        <v>639</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>640</v>
+      </c>
+      <c r="O78" t="s">
+        <v>62</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>641</v>
+      </c>
+      <c r="X78" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>644</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>645</v>
+      </c>
+      <c r="J79" t="s">
+        <v>646</v>
+      </c>
+      <c r="K79" t="s">
+        <v>647</v>
+      </c>
+      <c r="L79" t="s">
+        <v>648</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>649</v>
+      </c>
+      <c r="O79" t="s">
+        <v>166</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>650</v>
+      </c>
+      <c r="X79" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>653</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>654</v>
+      </c>
+      <c r="J80" t="s">
+        <v>655</v>
+      </c>
+      <c r="K80" t="s">
+        <v>656</v>
+      </c>
+      <c r="L80" t="s">
+        <v>657</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>640</v>
+      </c>
+      <c r="O80" t="s">
+        <v>166</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>658</v>
+      </c>
+      <c r="X80" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>661</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>662</v>
+      </c>
+      <c r="J81" t="s">
+        <v>663</v>
+      </c>
+      <c r="K81" t="s">
+        <v>664</v>
+      </c>
+      <c r="L81" t="s">
+        <v>665</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>666</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>667</v>
+      </c>
+      <c r="J82" t="s">
+        <v>668</v>
+      </c>
+      <c r="K82" t="s">
+        <v>669</v>
+      </c>
+      <c r="L82" t="s">
+        <v>670</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>671</v>
+      </c>
+      <c r="O82" t="s">
+        <v>98</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>673</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>674</v>
+      </c>
+      <c r="J83" t="s">
+        <v>675</v>
+      </c>
+      <c r="K83" t="s">
+        <v>676</v>
+      </c>
+      <c r="L83" t="s">
+        <v>677</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>678</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>680</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>681</v>
+      </c>
+      <c r="J84" t="s">
+        <v>682</v>
+      </c>
+      <c r="K84" t="s">
+        <v>683</v>
+      </c>
+      <c r="L84" t="s">
+        <v>684</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>685</v>
+      </c>
+      <c r="O84" t="s">
+        <v>98</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>687</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>688</v>
+      </c>
+      <c r="J85" t="s">
+        <v>689</v>
+      </c>
+      <c r="K85" t="s">
+        <v>690</v>
+      </c>
+      <c r="L85" t="s">
+        <v>691</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>692</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>693</v>
+      </c>
+      <c r="J86" t="s">
+        <v>694</v>
+      </c>
+      <c r="K86" t="s">
+        <v>695</v>
+      </c>
+      <c r="L86" t="s">
+        <v>696</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>697</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>36631</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>698</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>699</v>
+      </c>
+      <c r="J87" t="s">
+        <v>700</v>
+      </c>
+      <c r="K87" t="s">
+        <v>701</v>
+      </c>
+      <c r="L87" t="s">
+        <v>702</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>703</v>
+      </c>
+      <c r="O87" t="s">
+        <v>62</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>
